--- a/data/trans_orig/P6702-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>38231</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28303</v>
+        <v>28951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49389</v>
+        <v>50207</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3014098294116281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2231409195027645</v>
+        <v>0.2282468798141299</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3893827103293496</v>
+        <v>0.3958283114346047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -764,19 +764,19 @@
         <v>28563</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19532</v>
+        <v>19759</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38636</v>
+        <v>38055</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3298563172952955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2255667363134976</v>
+        <v>0.2281850716978244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.446183902842308</v>
+        <v>0.4394753892932236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -785,19 +785,19 @@
         <v>66794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51682</v>
+        <v>52374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81446</v>
+        <v>82159</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3129509296503801</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2421486910379551</v>
+        <v>0.2453893965580196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3816003152020203</v>
+        <v>0.3849432109098387</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>11933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6447</v>
+        <v>6497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21115</v>
+        <v>20496</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09407892107663766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05082962950315609</v>
+        <v>0.05122084370353867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1664681325493924</v>
+        <v>0.161588460889464</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -835,19 +835,19 @@
         <v>6178</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2165</v>
+        <v>2911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12958</v>
+        <v>12551</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07134121580215473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02500750062066081</v>
+        <v>0.03361575538246806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1496400240036389</v>
+        <v>0.1449459157949204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -856,19 +856,19 @@
         <v>18111</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11360</v>
+        <v>10879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29193</v>
+        <v>27046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0848539462099626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05322465607357531</v>
+        <v>0.05096991145631891</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1367797232920856</v>
+        <v>0.1267195080971667</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>48544</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37773</v>
+        <v>37678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>59447</v>
+        <v>60609</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.382720323153465</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2977998378793187</v>
+        <v>0.2970547384593113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4686767566754425</v>
+        <v>0.4778374460000447</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -906,19 +906,19 @@
         <v>33893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24840</v>
+        <v>25157</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43966</v>
+        <v>44111</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3914143062976229</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2868584207634989</v>
+        <v>0.2905241587563474</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5077406060249355</v>
+        <v>0.5094098758664348</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -927,19 +927,19 @@
         <v>82438</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68351</v>
+        <v>67718</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98515</v>
+        <v>97134</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3862475821722614</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3202462044349697</v>
+        <v>0.3172836119494344</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4615768138426837</v>
+        <v>0.4551065629618115</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>16281</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9782</v>
+        <v>9901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25569</v>
+        <v>25197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1283590710613055</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07712101993485268</v>
+        <v>0.07806283207262441</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2015810079767477</v>
+        <v>0.1986486274507274</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -977,19 +977,19 @@
         <v>10251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5155</v>
+        <v>5249</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19066</v>
+        <v>19648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1183812562301294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05953177390877851</v>
+        <v>0.06061250566479627</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2201828076223114</v>
+        <v>0.2269038070133259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -998,19 +998,19 @@
         <v>26532</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17840</v>
+        <v>18039</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37808</v>
+        <v>38316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1243109452750489</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0835869977175283</v>
+        <v>0.08451967919046272</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1771431950464082</v>
+        <v>0.1795248233029141</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>11851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6411</v>
+        <v>6937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19958</v>
+        <v>19349</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09343185529696366</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05054550591949905</v>
+        <v>0.0546902038453675</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1573453771303208</v>
+        <v>0.152542671705269</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1048,19 +1048,19 @@
         <v>7707</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3171</v>
+        <v>3334</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13980</v>
+        <v>14799</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0890069043747975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03661697017215202</v>
+        <v>0.03850033222468822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.16144170891793</v>
+        <v>0.1709038979292793</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -1069,19 +1069,19 @@
         <v>19558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12234</v>
+        <v>12134</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29641</v>
+        <v>28905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09163659669234697</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05732229541314708</v>
+        <v>0.05685176968707188</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1388777764270975</v>
+        <v>0.135430584339306</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>40587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29882</v>
+        <v>30518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54095</v>
+        <v>53726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2356397316304101</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1734899484065255</v>
+        <v>0.1771839882521296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3140697507497699</v>
+        <v>0.3119272499958978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1194,19 +1194,19 @@
         <v>39134</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28079</v>
+        <v>29598</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50899</v>
+        <v>50377</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3189697226830926</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2288683900821137</v>
+        <v>0.2412462231584681</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4148693508833926</v>
+        <v>0.4106098054701718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1215,19 +1215,19 @@
         <v>79720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64724</v>
+        <v>64287</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96309</v>
+        <v>97182</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2703045150176023</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2194556342394703</v>
+        <v>0.2179768019730726</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3265517132942495</v>
+        <v>0.329512509421955</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>14551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8058</v>
+        <v>8367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22885</v>
+        <v>22505</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08448232551191129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04678328602583239</v>
+        <v>0.04857880403139758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1328694910631464</v>
+        <v>0.1306607545414663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1265,19 +1265,19 @@
         <v>14895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8275</v>
+        <v>8218</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22934</v>
+        <v>24069</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1214025642460964</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06744739283914691</v>
+        <v>0.06698321077906871</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1869316988244054</v>
+        <v>0.1961812954950736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1286,19 +1286,19 @@
         <v>29446</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20376</v>
+        <v>20223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>41187</v>
+        <v>40750</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09984092644485536</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06908654057163703</v>
+        <v>0.06856847830909077</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1396497243056275</v>
+        <v>0.1381687579060867</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>35723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25473</v>
+        <v>25760</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46928</v>
+        <v>49081</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.207402875008749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1478947276505317</v>
+        <v>0.149560182802128</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.272457457240009</v>
+        <v>0.2849562728208825</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -1336,19 +1336,19 @@
         <v>19100</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11385</v>
+        <v>11649</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28589</v>
+        <v>28667</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1556798463815697</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09279597110199538</v>
+        <v>0.09494665835844791</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2330237942422595</v>
+        <v>0.2336576644277179</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>52</v>
@@ -1357,19 +1357,19 @@
         <v>54823</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>41813</v>
+        <v>41811</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>71811</v>
+        <v>70304</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.185886401037725</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1417728279180779</v>
+        <v>0.1417674465454205</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2434852714147378</v>
+        <v>0.2383765498316273</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>10773</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5540</v>
+        <v>5014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21375</v>
+        <v>19303</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06254809846211637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03216339573534831</v>
+        <v>0.0291131751123035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1240998187106425</v>
+        <v>0.1120695203176022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1407,19 +1407,19 @@
         <v>7391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3065</v>
+        <v>3083</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14340</v>
+        <v>14593</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06024526456998674</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02498115527077956</v>
+        <v>0.02513265321317384</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1168786264734788</v>
+        <v>0.1189447158678028</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1428,19 +1428,19 @@
         <v>18165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10437</v>
+        <v>11509</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29153</v>
+        <v>29005</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06159013318408232</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03538883909025392</v>
+        <v>0.0390223648085723</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09884948577936291</v>
+        <v>0.09834646574301954</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>70606</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57536</v>
+        <v>57410</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84109</v>
+        <v>85673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4099269693868132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3340448815005908</v>
+        <v>0.3333145349793382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4883256813086928</v>
+        <v>0.4974065458919822</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1478,19 +1478,19 @@
         <v>42168</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>31338</v>
+        <v>31046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55293</v>
+        <v>53723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3437026021192546</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2554301579916975</v>
+        <v>0.2530465629160668</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4506775401888106</v>
+        <v>0.4378842317404801</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>100</v>
@@ -1499,19 +1499,19 @@
         <v>112774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95788</v>
+        <v>94873</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132476</v>
+        <v>130485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.382378024315735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3247860229059828</v>
+        <v>0.3216828136408462</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4491809733855874</v>
+        <v>0.4424302307748234</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>24253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15959</v>
+        <v>16381</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35357</v>
+        <v>33668</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1693635299610384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1114419422234748</v>
+        <v>0.1143908485905397</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2469062554715572</v>
+        <v>0.2351106446948779</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1624,19 +1624,19 @@
         <v>27881</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19352</v>
+        <v>19590</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38342</v>
+        <v>37181</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3385024295815831</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2349484554959606</v>
+        <v>0.2378387831954041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4655085979959078</v>
+        <v>0.4514117153711855</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -1645,19 +1645,19 @@
         <v>52134</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40659</v>
+        <v>39431</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64954</v>
+        <v>66647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2311250133346317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1802524923362941</v>
+        <v>0.1748096106601105</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.287960281893656</v>
+        <v>0.2954651280086638</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>26154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18063</v>
+        <v>18435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35188</v>
+        <v>36495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1826375448298246</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1261381078699823</v>
+        <v>0.1287379609639282</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.245727861809063</v>
+        <v>0.2548547083120246</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -1695,19 +1695,19 @@
         <v>17638</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11522</v>
+        <v>11179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26172</v>
+        <v>25869</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2141446307405526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1398929966065738</v>
+        <v>0.1357178495181591</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.317757337429223</v>
+        <v>0.3140722908414803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1716,19 +1716,19 @@
         <v>43792</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32600</v>
+        <v>34095</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56023</v>
+        <v>55777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1941424344027814</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1445225926798685</v>
+        <v>0.1511526328450487</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2483640687014139</v>
+        <v>0.2472748927611275</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>50312</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>38569</v>
+        <v>40521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>61401</v>
+        <v>62691</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3513360707685828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2693347121005089</v>
+        <v>0.2829667504335145</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4287774432064504</v>
+        <v>0.4377799889497188</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -1766,19 +1766,19 @@
         <v>30901</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21432</v>
+        <v>22710</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40628</v>
+        <v>40376</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.375162648583743</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2602097939741189</v>
+        <v>0.2757181597547568</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4932626488228129</v>
+        <v>0.4902050928824941</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -1787,19 +1787,19 @@
         <v>81212</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68594</v>
+        <v>67829</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>96071</v>
+        <v>96004</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3600364040028774</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3040978533961119</v>
+        <v>0.3007022802882117</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4259100068155706</v>
+        <v>0.4256132412028214</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>36767</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27433</v>
+        <v>27274</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48416</v>
+        <v>47901</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2567511545645064</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1915686661798006</v>
+        <v>0.1904579136194763</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3380986270322925</v>
+        <v>0.3345027027987018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1837,19 +1837,19 @@
         <v>5946</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2029</v>
+        <v>2015</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11572</v>
+        <v>12829</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07219029109412124</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02463554717718841</v>
+        <v>0.02446338804109129</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1404927616112269</v>
+        <v>0.1557603171006958</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -1858,19 +1858,19 @@
         <v>42713</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30729</v>
+        <v>33062</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54581</v>
+        <v>57106</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1893583033267675</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1362311100716062</v>
+        <v>0.1465727916858499</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2419743800223019</v>
+        <v>0.2531674359228095</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>5715</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1891</v>
+        <v>2790</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11586</v>
+        <v>11931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03991169987604783</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01320178722944704</v>
+        <v>0.01948048386782065</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08090468478939956</v>
+        <v>0.08331733224015821</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1921,19 +1921,19 @@
         <v>5715</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1910</v>
+        <v>1964</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11456</v>
+        <v>11639</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02533784493294189</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008467067443510681</v>
+        <v>0.008707123764695027</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05078768915655892</v>
+        <v>0.05160103773767665</v>
       </c>
     </row>
     <row r="21">
@@ -2025,19 +2025,19 @@
         <v>21373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13913</v>
+        <v>13925</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32909</v>
+        <v>32409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1497882465061405</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09750332926795821</v>
+        <v>0.09759116361086995</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2306346370019786</v>
+        <v>0.227128570185579</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2046,19 +2046,19 @@
         <v>15214</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9222</v>
+        <v>8903</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24410</v>
+        <v>23800</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1485044562292717</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09001341783274708</v>
+        <v>0.08690685180917029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2382672677932433</v>
+        <v>0.2323141651660287</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2067,19 +2067,19 @@
         <v>36587</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26303</v>
+        <v>25221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49712</v>
+        <v>49105</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1492517251792763</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.107298790434348</v>
+        <v>0.1028844725921296</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2027910202761495</v>
+        <v>0.2003171943024456</v>
       </c>
     </row>
     <row r="23">
@@ -2096,19 +2096,19 @@
         <v>26926</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17860</v>
+        <v>17540</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>36905</v>
+        <v>38375</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1887072970134458</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1251683274153894</v>
+        <v>0.1229250130656179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.258640165195361</v>
+        <v>0.2689415550287176</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>19</v>
@@ -2117,19 +2117,19 @@
         <v>21093</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13821</v>
+        <v>13211</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>31072</v>
+        <v>31677</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2058861868070707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1349067552997759</v>
+        <v>0.1289525719732785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3032998842394142</v>
+        <v>0.3092045634514407</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -2138,19 +2138,19 @@
         <v>48019</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>34937</v>
+        <v>36879</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>62031</v>
+        <v>61587</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1958866945460467</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1425218925454934</v>
+        <v>0.1504409243055574</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2530464671082155</v>
+        <v>0.2512344524748776</v>
       </c>
     </row>
     <row r="24">
@@ -2167,19 +2167,19 @@
         <v>68512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>55339</v>
+        <v>56234</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>80937</v>
+        <v>80264</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4801459702190108</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3878297751721996</v>
+        <v>0.3941007874888566</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.56722855608444</v>
+        <v>0.5625092083153529</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>42</v>
@@ -2188,19 +2188,19 @@
         <v>44549</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34820</v>
+        <v>34733</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>55018</v>
+        <v>55165</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4348425094576197</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3398805148983001</v>
+        <v>0.339030951676988</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5370378961660852</v>
+        <v>0.538470685182574</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -2209,19 +2209,19 @@
         <v>113060</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>96533</v>
+        <v>96708</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>131133</v>
+        <v>128521</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4612127586834602</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3937936380693013</v>
+        <v>0.3945060937402876</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5349388482818069</v>
+        <v>0.5242820919389721</v>
       </c>
     </row>
     <row r="25">
@@ -2238,19 +2238,19 @@
         <v>21482</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13456</v>
+        <v>13335</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32866</v>
+        <v>33305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.150552244678325</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09430432457987382</v>
+        <v>0.0934541363019334</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2303311672521743</v>
+        <v>0.2334062823342824</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -2259,19 +2259,19 @@
         <v>13532</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7495</v>
+        <v>7647</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22672</v>
+        <v>21723</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1320828747666334</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07315480764153237</v>
+        <v>0.07464511197452636</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2213042866535209</v>
+        <v>0.2120419674582305</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -2280,19 +2280,19 @@
         <v>35014</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24705</v>
+        <v>25417</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47116</v>
+        <v>47922</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1428335300020192</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1007817864099842</v>
+        <v>0.1036850661990086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1922012022399632</v>
+        <v>0.1954890920837927</v>
       </c>
     </row>
     <row r="26">
@@ -2309,19 +2309,19 @@
         <v>4396</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1069</v>
+        <v>1232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11107</v>
+        <v>11768</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03080624158307783</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007494024576192272</v>
+        <v>0.008632626960911547</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07784228475780765</v>
+        <v>0.08247347468272107</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2330,19 +2330,19 @@
         <v>8061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3718</v>
+        <v>3778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14916</v>
+        <v>14647</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07868397273940449</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03629299309985365</v>
+        <v>0.03687499795252357</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1455958592117157</v>
+        <v>0.1429660281460942</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>12</v>
@@ -2351,19 +2351,19 @@
         <v>12457</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7269</v>
+        <v>6925</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20708</v>
+        <v>21699</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05081529158919749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02965233348481701</v>
+        <v>0.02824926704159205</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08447572691923926</v>
+        <v>0.08851787126310219</v>
       </c>
     </row>
     <row r="27">
@@ -2455,19 +2455,19 @@
         <v>10071</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5085</v>
+        <v>5155</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17850</v>
+        <v>16345</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.122342620366863</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06177419565837632</v>
+        <v>0.06262980525262253</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2168515811984</v>
+        <v>0.1985748256426279</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>13</v>
@@ -2476,19 +2476,19 @@
         <v>13604</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7951</v>
+        <v>8028</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>21214</v>
+        <v>21098</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2485016699295115</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1452428908472247</v>
+        <v>0.1466466637344643</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3875175812768666</v>
+        <v>0.3854079871213879</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -2497,19 +2497,19 @@
         <v>23674</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15828</v>
+        <v>15489</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>33305</v>
+        <v>33189</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1727329146892407</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1154863718119549</v>
+        <v>0.113014071899087</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2430030918552167</v>
+        <v>0.2421517370135847</v>
       </c>
     </row>
     <row r="29">
@@ -2526,19 +2526,19 @@
         <v>20804</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12686</v>
+        <v>13288</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29730</v>
+        <v>30339</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2527358493348745</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.154118330430113</v>
+        <v>0.1614324438289305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3611762322592705</v>
+        <v>0.3685724055291051</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -2547,19 +2547,19 @@
         <v>7146</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2984</v>
+        <v>3039</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>13860</v>
+        <v>13781</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1305400360364066</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05451480931579569</v>
+        <v>0.05551328231648373</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2531820033369601</v>
+        <v>0.2517353618229017</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2568,19 +2568,19 @@
         <v>27950</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18900</v>
+        <v>19375</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>38473</v>
+        <v>38855</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2039285460267245</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1378980907855582</v>
+        <v>0.1413669914714117</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2807108841424354</v>
+        <v>0.2834988294407038</v>
       </c>
     </row>
     <row r="30">
@@ -2597,19 +2597,19 @@
         <v>35637</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27149</v>
+        <v>26722</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>46929</v>
+        <v>45160</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4329390560338592</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3298188166187812</v>
+        <v>0.3246300105098984</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5701188455373132</v>
+        <v>0.5486309484987099</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -2618,19 +2618,19 @@
         <v>24180</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17303</v>
+        <v>17142</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31807</v>
+        <v>32387</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4417071372750797</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3160743850466288</v>
+        <v>0.3131338832012751</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5810159707281518</v>
+        <v>0.5916204723654339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>55</v>
@@ -2639,19 +2639,19 @@
         <v>59817</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48778</v>
+        <v>49319</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>72573</v>
+        <v>71800</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4364411923920458</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3558992387593745</v>
+        <v>0.359841102914452</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5295111552817422</v>
+        <v>0.5238673296985966</v>
       </c>
     </row>
     <row r="31">
@@ -2668,19 +2668,19 @@
         <v>13838</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7622</v>
+        <v>7503</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>21375</v>
+        <v>21801</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1681079166627547</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09259227975714124</v>
+        <v>0.09114820645241128</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2596808530041402</v>
+        <v>0.2648489371585669</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>8</v>
@@ -2689,19 +2689,19 @@
         <v>8028</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3766</v>
+        <v>2997</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14936</v>
+        <v>13914</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1466410415931428</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06879527212931147</v>
+        <v>0.05474703161550114</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2728385228793893</v>
+        <v>0.2541623376026325</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>21</v>
@@ -2710,19 +2710,19 @@
         <v>21865</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14791</v>
+        <v>14133</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31350</v>
+        <v>30686</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1595336434997162</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1079181050284198</v>
+        <v>0.1031175477327613</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2287349829366934</v>
+        <v>0.2238935676824883</v>
       </c>
     </row>
     <row r="32">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7284</v>
+        <v>6074</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.02387455760164865</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08848934114078016</v>
+        <v>0.0737935237631947</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5479</v>
+        <v>5373</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03261011516585935</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1000949071294559</v>
+        <v>0.09815760686046279</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2781,19 +2781,19 @@
         <v>3750</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>904</v>
+        <v>938</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8634</v>
+        <v>8420</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02736370339227273</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006594192273087226</v>
+        <v>0.006840842036102228</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.06299574524831295</v>
+        <v>0.06143451568369127</v>
       </c>
     </row>
     <row r="33">
@@ -2885,19 +2885,19 @@
         <v>25453</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17279</v>
+        <v>17373</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35581</v>
+        <v>35862</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.215215761505217</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1461060566289488</v>
+        <v>0.1469018941462284</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.30085693053937</v>
+        <v>0.3032295929224324</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -2906,19 +2906,19 @@
         <v>14847</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8340</v>
+        <v>8973</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21832</v>
+        <v>23102</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.268523698059063</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1508332107882785</v>
+        <v>0.1622918406863702</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3948578621041159</v>
+        <v>0.4178180433647359</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>38</v>
@@ -2927,19 +2927,19 @@
         <v>40300</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29576</v>
+        <v>28050</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>54263</v>
+        <v>51572</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2321986076278722</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1704121211276828</v>
+        <v>0.1616157128190693</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3126523913213743</v>
+        <v>0.2971463922571437</v>
       </c>
     </row>
     <row r="35">
@@ -2956,19 +2956,19 @@
         <v>18791</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11751</v>
+        <v>11890</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>27530</v>
+        <v>28784</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1588907570997874</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09936130706897313</v>
+        <v>0.100537387092238</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2327816414988811</v>
+        <v>0.2433843864962394</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>15</v>
@@ -2977,19 +2977,19 @@
         <v>16227</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9938</v>
+        <v>10410</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>24126</v>
+        <v>23739</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2934820854269721</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.179731455792692</v>
+        <v>0.1882796775595884</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4363391521914151</v>
+        <v>0.4293382947370327</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>33</v>
@@ -2998,19 +2998,19 @@
         <v>35019</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>24857</v>
+        <v>24428</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>46528</v>
+        <v>45437</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2017688718081953</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1432196704016385</v>
+        <v>0.1407467154383001</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2680805022824009</v>
+        <v>0.2617985699095634</v>
       </c>
     </row>
     <row r="36">
@@ -3027,19 +3027,19 @@
         <v>43212</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>33161</v>
+        <v>32053</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>56152</v>
+        <v>54978</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3653777306836107</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2803925501052659</v>
+        <v>0.2710238777157005</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4747927229505912</v>
+        <v>0.464864542748994</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>16</v>
@@ -3048,19 +3048,19 @@
         <v>16532</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>10390</v>
+        <v>10063</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>24077</v>
+        <v>24368</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2989968299283783</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1879189819828425</v>
+        <v>0.1819891968356603</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4354431367621384</v>
+        <v>0.440721214720272</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>52</v>
@@ -3069,19 +3069,19 @@
         <v>59744</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>46129</v>
+        <v>46359</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73292</v>
+        <v>73185</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3442300987194539</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2657852023978203</v>
+        <v>0.267111415647709</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4222933759521023</v>
+        <v>0.4216732005815492</v>
       </c>
     </row>
     <row r="37">
@@ -3098,19 +3098,19 @@
         <v>25715</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>17580</v>
+        <v>17031</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>35181</v>
+        <v>35954</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2174346903322489</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1486440151245362</v>
+        <v>0.1440096675024157</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2974722864948405</v>
+        <v>0.304010490090509</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -3119,19 +3119,19 @@
         <v>7685</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3763</v>
+        <v>3652</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13270</v>
+        <v>13697</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1389973865855866</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06806312218581849</v>
+        <v>0.06604273591160359</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.239995352646225</v>
+        <v>0.2477218918460587</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -3140,19 +3140,19 @@
         <v>33401</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>23537</v>
+        <v>23950</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>45890</v>
+        <v>44868</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1924461286673269</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.135616581336965</v>
+        <v>0.137995167667749</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2644069090364624</v>
+        <v>0.2585182409311697</v>
       </c>
     </row>
     <row r="38">
@@ -3169,19 +3169,19 @@
         <v>5095</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1986</v>
+        <v>1966</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>10843</v>
+        <v>10622</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.04308106037913601</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01679353117336077</v>
+        <v>0.01662127621318267</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0916851365602714</v>
+        <v>0.08981060207378508</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -3203,19 +3203,19 @@
         <v>5095</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1940</v>
+        <v>1946</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>11394</v>
+        <v>10539</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.02935629317715174</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01117609973837549</v>
+        <v>0.0112132295609341</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.0656519927256394</v>
+        <v>0.06072239432830552</v>
       </c>
     </row>
     <row r="39">
@@ -3307,19 +3307,19 @@
         <v>48690</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>35880</v>
+        <v>35613</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>63067</v>
+        <v>61997</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1790702695538088</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.131955495169844</v>
+        <v>0.1309733059465855</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2319445069824744</v>
+        <v>0.2280080285659154</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>43</v>
@@ -3328,19 +3328,19 @@
         <v>44523</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>33792</v>
+        <v>33433</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>56572</v>
+        <v>56579</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.244410412208602</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1855034823024571</v>
+        <v>0.1835340573624903</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3105522577936531</v>
+        <v>0.3105913575763058</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>87</v>
@@ -3349,19 +3349,19 @@
         <v>93214</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>74978</v>
+        <v>77890</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>112316</v>
+        <v>113907</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2052835154422638</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1651224499340817</v>
+        <v>0.1715357013789676</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2473516304939491</v>
+        <v>0.2508571831384809</v>
       </c>
     </row>
     <row r="41">
@@ -3378,19 +3378,19 @@
         <v>49651</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>36205</v>
+        <v>35966</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>65633</v>
+        <v>65541</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1826023819490009</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1331525330554869</v>
+        <v>0.132271629402473</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2413809056117016</v>
+        <v>0.2410432888960953</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>31</v>
@@ -3399,19 +3399,19 @@
         <v>35513</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>25259</v>
+        <v>25236</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>48630</v>
+        <v>47909</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1949499952610217</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1386594387733456</v>
+        <v>0.1385346522511753</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2669564220401504</v>
+        <v>0.2629986610016019</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>72</v>
@@ -3420,19 +3420,19 @@
         <v>85164</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>66582</v>
+        <v>67828</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>103599</v>
+        <v>105154</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.187556013984878</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1466331426691825</v>
+        <v>0.1493763817558415</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2281548073284308</v>
+        <v>0.2315795224930404</v>
       </c>
     </row>
     <row r="42">
@@ -3449,19 +3449,19 @@
         <v>110479</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>93943</v>
+        <v>95062</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>126787</v>
+        <v>129762</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4063133990251762</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.345495794036745</v>
+        <v>0.3496121193363683</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4662883682706339</v>
+        <v>0.4772284871316458</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>62</v>
@@ -3470,19 +3470,19 @@
         <v>66445</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>52991</v>
+        <v>54617</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>79767</v>
+        <v>80000</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3647517610708216</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2908934940798969</v>
+        <v>0.2998203828676764</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4378858781391726</v>
+        <v>0.4391649380460035</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>167</v>
@@ -3491,19 +3491,19 @@
         <v>176925</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>156938</v>
+        <v>155518</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>200308</v>
+        <v>198478</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.389639645480126</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3456231287677114</v>
+        <v>0.3424951232962374</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4411360175931103</v>
+        <v>0.43710571015157</v>
       </c>
     </row>
     <row r="43">
@@ -3520,19 +3520,19 @@
         <v>49347</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>36878</v>
+        <v>36264</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>63010</v>
+        <v>62407</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1814857145017191</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1356287047767258</v>
+        <v>0.1333693622821175</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2317326496502654</v>
+        <v>0.2295153271593096</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>24</v>
@@ -3541,19 +3541,19 @@
         <v>24453</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>15971</v>
+        <v>16162</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>34066</v>
+        <v>34353</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1342338800559434</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08767479658453922</v>
+        <v>0.08871942900388878</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1870073018667055</v>
+        <v>0.1885844161129308</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>73</v>
@@ -3562,19 +3562,19 @@
         <v>73800</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>58477</v>
+        <v>59309</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>91495</v>
+        <v>89726</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1625291603118756</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1287840191942943</v>
+        <v>0.1306145581895293</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2014994987735539</v>
+        <v>0.1976025807202995</v>
       </c>
     </row>
     <row r="44">
@@ -3591,19 +3591,19 @@
         <v>13739</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>7478</v>
+        <v>7597</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>23005</v>
+        <v>22611</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05052823497029509</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02750384419600482</v>
+        <v>0.02794124910574141</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08460435786869533</v>
+        <v>0.08315829678688004</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>11</v>
@@ -3612,19 +3612,19 @@
         <v>11231</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5982</v>
+        <v>5401</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>18563</v>
+        <v>20052</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.06165395140361134</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.032839759496896</v>
+        <v>0.02964936100687662</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1019019139400033</v>
+        <v>0.1100746847153339</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>25</v>
@@ -3633,19 +3633,19 @@
         <v>24970</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>16603</v>
+        <v>16315</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>35435</v>
+        <v>35157</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05499166478085657</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03656426748973618</v>
+        <v>0.0359308541900616</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.0780370871346682</v>
+        <v>0.07742552678532817</v>
       </c>
     </row>
     <row r="45">
@@ -3737,19 +3737,19 @@
         <v>37773</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>26720</v>
+        <v>25982</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>50988</v>
+        <v>50852</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1055087732441547</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07463425168883743</v>
+        <v>0.07257396086182639</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.142421450433737</v>
+        <v>0.142042829943807</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>25</v>
@@ -3758,19 +3758,19 @@
         <v>27328</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>17434</v>
+        <v>17703</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>38180</v>
+        <v>38634</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1061653135223533</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06772883772306676</v>
+        <v>0.06877589346006074</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1483234703109338</v>
+        <v>0.1500896463985412</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>59</v>
@@ -3779,19 +3779,19 @@
         <v>65101</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>51283</v>
+        <v>50121</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>83185</v>
+        <v>82350</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1057833829512044</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0833312498284802</v>
+        <v>0.08144325526851511</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.135169690496718</v>
+        <v>0.1338116999469056</v>
       </c>
     </row>
     <row r="47">
@@ -3808,19 +3808,19 @@
         <v>41835</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>30276</v>
+        <v>30748</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>57335</v>
+        <v>56130</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1168544171313767</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.08456911026061373</v>
+        <v>0.085886664239813</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1601506236637161</v>
+        <v>0.156785448899756</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>30</v>
@@ -3829,19 +3829,19 @@
         <v>32035</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>21865</v>
+        <v>21332</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>44709</v>
+        <v>43840</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1244504895610891</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.08494281766926366</v>
+        <v>0.08287260290087095</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1736874158559659</v>
+        <v>0.1703118505308153</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>70</v>
@@ -3850,19 +3850,19 @@
         <v>73869</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>58723</v>
+        <v>57324</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>91842</v>
+        <v>90339</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1200316102053119</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09542071724122984</v>
+        <v>0.09314638666154679</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1492358842655633</v>
+        <v>0.1467932540550275</v>
       </c>
     </row>
     <row r="48">
@@ -3879,19 +3879,19 @@
         <v>94252</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>78547</v>
+        <v>77224</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>111241</v>
+        <v>112722</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2632706497961297</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2194022020505517</v>
+        <v>0.2157047104810541</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3107249679048338</v>
+        <v>0.314860007533652</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>68</v>
@@ -3900,19 +3900,19 @@
         <v>72645</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>57915</v>
+        <v>58555</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>87620</v>
+        <v>89287</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.28221609716795</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2249945017827791</v>
+        <v>0.2274793139150222</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3403944976319677</v>
+        <v>0.3468676606402766</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>157</v>
@@ -3921,19 +3921,19 @@
         <v>166897</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>146713</v>
+        <v>145893</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>191399</v>
+        <v>190093</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2711949218102962</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2383977507658133</v>
+        <v>0.2370642329071345</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3110088109275611</v>
+        <v>0.3088857707809186</v>
       </c>
     </row>
     <row r="49">
@@ -3950,19 +3950,19 @@
         <v>119236</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>101511</v>
+        <v>100385</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>139185</v>
+        <v>137485</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3330569443304897</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2835462422907198</v>
+        <v>0.2803997766117944</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3887785364701017</v>
+        <v>0.3840291877837175</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>79</v>
@@ -3971,19 +3971,19 @@
         <v>92114</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>75742</v>
+        <v>75253</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>108286</v>
+        <v>109755</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3578504249406011</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2942472109453172</v>
+        <v>0.2923500240334177</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4206782909745196</v>
+        <v>0.4263861112963722</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>193</v>
@@ -3992,19 +3992,19 @@
         <v>211350</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>186988</v>
+        <v>188823</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>235634</v>
+        <v>238223</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3434272607804838</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3038416992961757</v>
+        <v>0.3068223847771775</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.382887047144185</v>
+        <v>0.3870946369790177</v>
       </c>
     </row>
     <row r="50">
@@ -4021,19 +4021,19 @@
         <v>64910</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>50284</v>
+        <v>51810</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>82352</v>
+        <v>83268</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1813092154978491</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1404555631241277</v>
+        <v>0.1447193545734074</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2300291528691487</v>
+        <v>0.2325868953998988</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>31</v>
@@ -4042,19 +4042,19 @@
         <v>33287</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>23550</v>
+        <v>23115</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>46405</v>
+        <v>45420</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1293176748080066</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.09148720560738265</v>
+        <v>0.08980089567935381</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.1802787926306566</v>
+        <v>0.1764508341069569</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>88</v>
@@ -4063,19 +4063,19 @@
         <v>98197</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>80061</v>
+        <v>80500</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>117188</v>
+        <v>118050</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1595628242527036</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.130093279678511</v>
+        <v>0.1308069590868082</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1904221265503536</v>
+        <v>0.191822168274037</v>
       </c>
     </row>
     <row r="51">
@@ -4167,19 +4167,19 @@
         <v>246430</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>216153</v>
+        <v>215856</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>276165</v>
+        <v>276089</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1740985186868271</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.152708284107945</v>
+        <v>0.1524983350349379</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1951057955520313</v>
+        <v>0.1950517870909875</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>194</v>
@@ -4188,19 +4188,19 @@
         <v>211094</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>186108</v>
+        <v>185923</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>240552</v>
+        <v>237974</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2236867624936398</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1972101398552696</v>
+        <v>0.1970143470560515</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2549023250806006</v>
+        <v>0.252170739666182</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>425</v>
@@ -4209,19 +4209,19 @@
         <v>457524</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>417481</v>
+        <v>420155</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>494585</v>
+        <v>500079</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1939345869696202</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1769613529808393</v>
+        <v>0.1780948481349521</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.209644044453437</v>
+        <v>0.2119727850144158</v>
       </c>
     </row>
     <row r="53">
@@ -4238,19 +4238,19 @@
         <v>210645</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>181249</v>
+        <v>185286</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>237749</v>
+        <v>241190</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1488170583776879</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1280494875584561</v>
+        <v>0.1309013552773027</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1679658188693115</v>
+        <v>0.1703962469644555</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>139</v>
@@ -4259,19 +4259,19 @@
         <v>150724</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>129279</v>
+        <v>130054</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>176442</v>
+        <v>175903</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1597157665359947</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.13699096628501</v>
+        <v>0.1378124141860756</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1869681499879935</v>
+        <v>0.1863962202960176</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>332</v>
@@ -4280,19 +4280,19 @@
         <v>361369</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>324859</v>
+        <v>327589</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>399507</v>
+        <v>396793</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1531767110418281</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1377007139348952</v>
+        <v>0.1388581342839328</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1693426077191864</v>
+        <v>0.1681922011807405</v>
       </c>
     </row>
     <row r="54">
@@ -4309,19 +4309,19 @@
         <v>486671</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>450174</v>
+        <v>451261</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>520550</v>
+        <v>524113</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3438247591395452</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.318040171759042</v>
+        <v>0.3188082808667296</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3677593718766095</v>
+        <v>0.3702767859348624</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>288</v>
@@ -4330,19 +4330,19 @@
         <v>308245</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>280017</v>
+        <v>279155</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>336461</v>
+        <v>333798</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3266337323020794</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2967219126136555</v>
+        <v>0.29580853342583</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3565323107988631</v>
+        <v>0.3537108042646108</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>748</v>
@@ -4351,19 +4351,19 @@
         <v>794916</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>749999</v>
+        <v>748317</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>844038</v>
+        <v>846321</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3369480812009639</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3179086214021571</v>
+        <v>0.3171957713698899</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3577696130108832</v>
+        <v>0.3587374930485518</v>
       </c>
     </row>
     <row r="55">
@@ -4380,19 +4380,19 @@
         <v>293440</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>264619</v>
+        <v>265412</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>324089</v>
+        <v>323968</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2073102137199298</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1869490064450363</v>
+        <v>0.18750880324723</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2289629895026973</v>
+        <v>0.2288779797924783</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>154</v>
@@ -4401,19 +4401,19 @@
         <v>169399</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>145129</v>
+        <v>146469</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>194824</v>
+        <v>194652</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1795048538325606</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1537862921084187</v>
+        <v>0.1552070995842156</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2064468015172462</v>
+        <v>0.2062638563347709</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>437</v>
@@ -4422,19 +4422,19 @@
         <v>462839</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>423296</v>
+        <v>423109</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>503134</v>
+        <v>506426</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1961876375806692</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1794263056616922</v>
+        <v>0.1793467446018541</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2132679058232806</v>
+        <v>0.2146630916016516</v>
       </c>
     </row>
     <row r="56">
@@ -4451,19 +4451,19 @@
         <v>178277</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>153152</v>
+        <v>153592</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>206186</v>
+        <v>206161</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.12594945007601</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.108199455710901</v>
+        <v>0.1085102001004065</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1456669726714445</v>
+        <v>0.1456488146437758</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>96</v>
@@ -4472,19 +4472,19 @@
         <v>104240</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>83575</v>
+        <v>88361</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>124482</v>
+        <v>128046</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1104588848357255</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.08856057096973642</v>
+        <v>0.09363245071211686</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1319081636293002</v>
+        <v>0.1356841270629922</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>259</v>
@@ -4493,19 +4493,19 @@
         <v>282517</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>252063</v>
+        <v>250642</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>315029</v>
+        <v>317341</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.1197529832069186</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1068441806337643</v>
+        <v>0.1062418276779153</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1335341470918916</v>
+        <v>0.1345142111266728</v>
       </c>
     </row>
     <row r="57">
@@ -4841,19 +4841,19 @@
         <v>47016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35980</v>
+        <v>36689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58872</v>
+        <v>59188</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3533676612810747</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2704203072609088</v>
+        <v>0.2757548065579667</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4424742217368215</v>
+        <v>0.4448503929151483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -4862,19 +4862,19 @@
         <v>44183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34812</v>
+        <v>34490</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54796</v>
+        <v>53696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4415193539407422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.347875451802979</v>
+        <v>0.3446627499131352</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5475767037265109</v>
+        <v>0.5365892160346237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -4883,19 +4883,19 @@
         <v>91198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76900</v>
+        <v>75890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107329</v>
+        <v>105665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3912078080234592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3298750754672838</v>
+        <v>0.3255393684871806</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4604027233800033</v>
+        <v>0.4532648869926752</v>
       </c>
     </row>
     <row r="5">
@@ -4912,19 +4912,19 @@
         <v>30685</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21761</v>
+        <v>21860</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42793</v>
+        <v>43393</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2306240470887529</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.163556129737541</v>
+        <v>0.1642967560438181</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3216295887447103</v>
+        <v>0.3261378209105079</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -4933,19 +4933,19 @@
         <v>12579</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6353</v>
+        <v>7219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19927</v>
+        <v>21558</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1257034990984726</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06348980974154114</v>
+        <v>0.07214334964437207</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1991330296559067</v>
+        <v>0.2154318005289797</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -4954,19 +4954,19 @@
         <v>43264</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31908</v>
+        <v>32185</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58261</v>
+        <v>56779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1855856727540521</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1368726060349762</v>
+        <v>0.1380601296837198</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2499204174600212</v>
+        <v>0.2435617463396755</v>
       </c>
     </row>
     <row r="6">
@@ -4983,19 +4983,19 @@
         <v>41801</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30723</v>
+        <v>31809</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53070</v>
+        <v>53637</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3141705409856889</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2309116104974541</v>
+        <v>0.2390765999340529</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3988717899378588</v>
+        <v>0.4031312637210319</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -5004,19 +5004,19 @@
         <v>24178</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16516</v>
+        <v>17082</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33615</v>
+        <v>33596</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2416066318848707</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1650480256101672</v>
+        <v>0.1707012216961461</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3359141925564638</v>
+        <v>0.3357281968157182</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>62</v>
@@ -5025,19 +5025,19 @@
         <v>65978</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>51843</v>
+        <v>53551</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>81611</v>
+        <v>81300</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2830216329417221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.222388971068365</v>
+        <v>0.2297131920739971</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.350082187829219</v>
+        <v>0.3487488842913324</v>
       </c>
     </row>
     <row r="7">
@@ -5054,19 +5054,19 @@
         <v>8985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4327</v>
+        <v>4272</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16436</v>
+        <v>17354</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0675281489767989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03252241217694649</v>
+        <v>0.03211085102798826</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1235322194398291</v>
+        <v>0.1304293500064432</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -5075,19 +5075,19 @@
         <v>10992</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5826</v>
+        <v>5792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19207</v>
+        <v>19982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1098447867221824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05821577418874284</v>
+        <v>0.05788274939488793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1919311502615403</v>
+        <v>0.1996848755791788</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -5096,19 +5096,19 @@
         <v>19977</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11838</v>
+        <v>12186</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30591</v>
+        <v>32322</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08569306145456321</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05078172359951184</v>
+        <v>0.05227165830070986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1312244968605114</v>
+        <v>0.1386484828145693</v>
       </c>
     </row>
     <row r="8">
@@ -5125,19 +5125,19 @@
         <v>4565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11274</v>
+        <v>11084</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03430960166768462</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.009781448347521614</v>
+        <v>0.009882830885435078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08473229928459131</v>
+        <v>0.08330998507532855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5146,19 +5146,19 @@
         <v>8138</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3808</v>
+        <v>3840</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14594</v>
+        <v>14945</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08132572835373207</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03805262715110187</v>
+        <v>0.038373748174837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1458347485352292</v>
+        <v>0.1493438607580098</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -5167,19 +5167,19 @@
         <v>12703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>7009</v>
+        <v>7147</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>21891</v>
+        <v>21721</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05449182482620343</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03006415600089255</v>
+        <v>0.03065802354515638</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09390284734808671</v>
+        <v>0.09317653939618008</v>
       </c>
     </row>
     <row r="9">
@@ -5271,19 +5271,19 @@
         <v>29562</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20129</v>
+        <v>20202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40513</v>
+        <v>41634</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1735934335479841</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1182022787315131</v>
+        <v>0.1186268504581881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2378953918253158</v>
+        <v>0.244481590734283</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5292,19 +5292,19 @@
         <v>24916</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17279</v>
+        <v>16804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34897</v>
+        <v>34690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2191790987832817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1519998053597666</v>
+        <v>0.1478157896134071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3069731714033704</v>
+        <v>0.3051547487334047</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>51</v>
@@ -5313,19 +5313,19 @@
         <v>54479</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41875</v>
+        <v>41719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>69465</v>
+        <v>69970</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1918420508880827</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1474573990224276</v>
+        <v>0.1469084483023196</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2446161296033746</v>
+        <v>0.2463922793221688</v>
       </c>
     </row>
     <row r="11">
@@ -5342,19 +5342,19 @@
         <v>19565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11736</v>
+        <v>11742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30140</v>
+        <v>29741</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1148889843072519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06891395203257455</v>
+        <v>0.06894750739286963</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1769839983041546</v>
+        <v>0.1746406264024313</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -5363,19 +5363,19 @@
         <v>15639</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9348</v>
+        <v>9307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>24278</v>
+        <v>23599</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1375719674847836</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0822340119500603</v>
+        <v>0.08187424731617311</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2135679839550938</v>
+        <v>0.2075915852026632</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -5384,19 +5384,19 @@
         <v>35204</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24481</v>
+        <v>25170</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>47343</v>
+        <v>48288</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1239693186185335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08620882807163686</v>
+        <v>0.08863326457663255</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1667132631294483</v>
+        <v>0.1700412397707881</v>
       </c>
     </row>
     <row r="12">
@@ -5413,19 +5413,19 @@
         <v>36279</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26148</v>
+        <v>26553</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47512</v>
+        <v>47308</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2130348701036912</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1535429215092291</v>
+        <v>0.1559222822520509</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.278996456244951</v>
+        <v>0.2777985519415578</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -5434,19 +5434,19 @@
         <v>26867</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18635</v>
+        <v>18367</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37496</v>
+        <v>37004</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2363388532831149</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1639258057878256</v>
+        <v>0.161566752835082</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3298377322270479</v>
+        <v>0.3255111645012518</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>60</v>
@@ -5455,19 +5455,19 @@
         <v>63146</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49533</v>
+        <v>49223</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>77162</v>
+        <v>77178</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2223637999184986</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1744251977301317</v>
+        <v>0.1733341037578587</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2717208744142727</v>
+        <v>0.271776328555509</v>
       </c>
     </row>
     <row r="13">
@@ -5484,19 +5484,19 @@
         <v>38059</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27796</v>
+        <v>27384</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49631</v>
+        <v>49459</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2234847489732474</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1632184624426614</v>
+        <v>0.1608005995673398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2914392210731537</v>
+        <v>0.2904264510567294</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -5505,19 +5505,19 @@
         <v>16965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10639</v>
+        <v>10821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25170</v>
+        <v>26099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1492327450404992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09359016066450034</v>
+        <v>0.09519158789900455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2214094455144361</v>
+        <v>0.2295820303057731</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -5526,19 +5526,19 @@
         <v>55024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42885</v>
+        <v>42092</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>70788</v>
+        <v>69119</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1937605714382659</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1510148527719743</v>
+        <v>0.1482226436407284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2492738305872249</v>
+        <v>0.2433962502858225</v>
       </c>
     </row>
     <row r="14">
@@ -5555,19 +5555,19 @@
         <v>46831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35480</v>
+        <v>35463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59577</v>
+        <v>60049</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2749979630678254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2083396164168387</v>
+        <v>0.2082431151032487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3498397932246083</v>
+        <v>0.3526108727544515</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5576,19 +5576,19 @@
         <v>29293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20483</v>
+        <v>21525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39225</v>
+        <v>41520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2576773354083206</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1801784412284314</v>
+        <v>0.1893471236032715</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3450447283608251</v>
+        <v>0.365234899087324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>70</v>
@@ -5597,19 +5597,19 @@
         <v>76124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>61124</v>
+        <v>62010</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>92126</v>
+        <v>93534</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2680642591366192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.215242000971776</v>
+        <v>0.2183610992713659</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3244153151669073</v>
+        <v>0.3293723572866459</v>
       </c>
     </row>
     <row r="15">
@@ -5701,19 +5701,19 @@
         <v>22680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15477</v>
+        <v>14257</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33050</v>
+        <v>31807</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1805854640276009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1232351113810625</v>
+        <v>0.1135196511660708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2631580962133763</v>
+        <v>0.2532637961850096</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -5722,19 +5722,19 @@
         <v>15988</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10159</v>
+        <v>9800</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24697</v>
+        <v>23982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1895778773077877</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1204623476130089</v>
+        <v>0.1162040663783374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2928503663317372</v>
+        <v>0.2843731594778526</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -5743,19 +5743,19 @@
         <v>38667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28432</v>
+        <v>27815</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50763</v>
+        <v>50418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1841980405998022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1354413544322083</v>
+        <v>0.132501466287653</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2418181506987045</v>
+        <v>0.2401735980411392</v>
       </c>
     </row>
     <row r="17">
@@ -5772,19 +5772,19 @@
         <v>29299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20433</v>
+        <v>21052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38987</v>
+        <v>39478</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2332911532729824</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1626987900957545</v>
+        <v>0.1676236975405908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3104300462636578</v>
+        <v>0.3143421199705609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5793,19 +5793,19 @@
         <v>14712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8334</v>
+        <v>9194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21764</v>
+        <v>22230</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1744482911229535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09881747752467704</v>
+        <v>0.1090163724842644</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2580666152219401</v>
+        <v>0.2635959908868888</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -5814,19 +5814,19 @@
         <v>44011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33534</v>
+        <v>33354</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56949</v>
+        <v>56445</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2096518543861266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1597452835187504</v>
+        <v>0.1588864653909862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2712855738649494</v>
+        <v>0.2688872485992942</v>
       </c>
     </row>
     <row r="18">
@@ -5843,19 +5843,19 @@
         <v>42244</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31840</v>
+        <v>32745</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53099</v>
+        <v>54403</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3363682557375215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2535251822840868</v>
+        <v>0.2607280040285734</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4228022399742118</v>
+        <v>0.4331798318559443</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -5864,19 +5864,19 @@
         <v>35539</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26327</v>
+        <v>26779</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43827</v>
+        <v>44537</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4214105578366209</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3121801004481347</v>
+        <v>0.3175329344486605</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5196952306999699</v>
+        <v>0.5281044518997381</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>80</v>
@@ -5885,19 +5885,19 @@
         <v>77783</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>63030</v>
+        <v>63694</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>90719</v>
+        <v>92007</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3705328140865228</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3002528507036603</v>
+        <v>0.3034171546311302</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.432155517224821</v>
+        <v>0.4382893173644279</v>
       </c>
     </row>
     <row r="19">
@@ -5914,19 +5914,19 @@
         <v>23008</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15209</v>
+        <v>14668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31600</v>
+        <v>31713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.183202741053958</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1211035700987821</v>
+        <v>0.116795735802238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2516112770595983</v>
+        <v>0.2525174493307153</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -5935,19 +5935,19 @@
         <v>13628</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8121</v>
+        <v>7914</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20681</v>
+        <v>20530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1615948268628135</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09629692939179073</v>
+        <v>0.0938461812945664</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2452310864994676</v>
+        <v>0.243440374793296</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5956,19 +5956,19 @@
         <v>36636</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26558</v>
+        <v>26609</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48215</v>
+        <v>47641</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1745220630036</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1265122537540339</v>
+        <v>0.1267550205529941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2296815177179075</v>
+        <v>0.2269460852005265</v>
       </c>
     </row>
     <row r="20">
@@ -5985,19 +5985,19 @@
         <v>8358</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4337</v>
+        <v>3882</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14752</v>
+        <v>14948</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06655238590793712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03453042102756959</v>
+        <v>0.03090810654066973</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1174639359350031</v>
+        <v>0.1190204522618238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6006,19 +6006,19 @@
         <v>4467</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1023</v>
+        <v>1088</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10173</v>
+        <v>11411</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05296844686982442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01213115937960152</v>
+        <v>0.01289942615504274</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1206273777992263</v>
+        <v>0.1353101039362666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -6027,19 +6027,19 @@
         <v>12825</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6649</v>
+        <v>6945</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21226</v>
+        <v>20307</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06109522792394843</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03167262657541462</v>
+        <v>0.0330826938177064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1011154160141964</v>
+        <v>0.09673585404248081</v>
       </c>
     </row>
     <row r="21">
@@ -6131,19 +6131,19 @@
         <v>23024</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15081</v>
+        <v>15329</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33151</v>
+        <v>32737</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2052414662588397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1344392743867642</v>
+        <v>0.1366428950850118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2955175423682311</v>
+        <v>0.291821350325377</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -6152,19 +6152,19 @@
         <v>30150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21659</v>
+        <v>22323</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38662</v>
+        <v>39913</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3683164025467257</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2645905435171322</v>
+        <v>0.2727038617673916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.472297101721696</v>
+        <v>0.487583100558085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -6173,19 +6173,19 @@
         <v>53174</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41462</v>
+        <v>39976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67426</v>
+        <v>66006</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2740375426798383</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2136765405488669</v>
+        <v>0.2060182929618806</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3474875747867554</v>
+        <v>0.3401689961603374</v>
       </c>
     </row>
     <row r="23">
@@ -6202,19 +6202,19 @@
         <v>9182</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4266</v>
+        <v>4148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17023</v>
+        <v>16408</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08185324966926021</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03803243503391612</v>
+        <v>0.03697186383319672</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1517498237966007</v>
+        <v>0.1462609578982087</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -6223,19 +6223,19 @@
         <v>8883</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4115</v>
+        <v>4750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15819</v>
+        <v>16291</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.108511937658285</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05026556243387605</v>
+        <v>0.05802321762401006</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1932470626047703</v>
+        <v>0.1990110344600012</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -6244,19 +6244,19 @@
         <v>18065</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11112</v>
+        <v>11215</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>27372</v>
+        <v>27624</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0930996936533855</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05726749380812213</v>
+        <v>0.05779847464020275</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1410619302167347</v>
+        <v>0.1423650212301186</v>
       </c>
     </row>
     <row r="24">
@@ -6273,19 +6273,19 @@
         <v>39447</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29490</v>
+        <v>29459</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>50356</v>
+        <v>50029</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3516416351183662</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2628838420130176</v>
+        <v>0.2626030268709442</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4488856097283635</v>
+        <v>0.445967163849499</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -6294,19 +6294,19 @@
         <v>16334</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>9953</v>
+        <v>9857</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24623</v>
+        <v>24713</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1995418131340172</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1215853477309467</v>
+        <v>0.1204100501021695</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3007943620931794</v>
+        <v>0.3018923841926897</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>53</v>
@@ -6315,19 +6315,19 @@
         <v>55781</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>44796</v>
+        <v>43407</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>69379</v>
+        <v>69251</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2874756068184498</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2308616079167584</v>
+        <v>0.2237038653619224</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3575529287001403</v>
+        <v>0.3568934372715537</v>
       </c>
     </row>
     <row r="25">
@@ -6344,19 +6344,19 @@
         <v>12843</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6470</v>
+        <v>6980</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21984</v>
+        <v>22072</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1144812760319536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05767701842680395</v>
+        <v>0.06221757007217096</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1959708048164043</v>
+        <v>0.1967536984873302</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -6365,19 +6365,19 @@
         <v>11494</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5574</v>
+        <v>6134</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19181</v>
+        <v>19613</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1404122017430827</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06809708009368716</v>
+        <v>0.07493041082482986</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2343222749297059</v>
+        <v>0.2395925484541903</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -6386,19 +6386,19 @@
         <v>24337</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15177</v>
+        <v>15552</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35949</v>
+        <v>35530</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1254207004922567</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07821430553086924</v>
+        <v>0.08014882127359226</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1852684367802089</v>
+        <v>0.1831097587861706</v>
       </c>
     </row>
     <row r="26">
@@ -6415,19 +6415,19 @@
         <v>27684</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18802</v>
+        <v>19178</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37129</v>
+        <v>38323</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2467823729215804</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1676053524852853</v>
+        <v>0.1709595261359879</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3309811967346217</v>
+        <v>0.3416181173028575</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -6436,19 +6436,19 @@
         <v>14998</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8924</v>
+        <v>9000</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23099</v>
+        <v>23114</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1832176449178894</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1090201162509312</v>
+        <v>0.1099402663308188</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2821763868835642</v>
+        <v>0.2823577822331181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -6457,19 +6457,19 @@
         <v>42682</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>32829</v>
+        <v>31124</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57969</v>
+        <v>55572</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2199664563560697</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1691877336152169</v>
+        <v>0.1604031074159905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2987514170496</v>
+        <v>0.2863976877075641</v>
       </c>
     </row>
     <row r="27">
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6638</v>
+        <v>6650</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0236486462434509</v>
@@ -6573,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08202414294131762</v>
+        <v>0.0821670333504739</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -6582,19 +6582,19 @@
         <v>2581</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6116</v>
+        <v>6895</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04658193590186124</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01487047214846354</v>
+        <v>0.01479622445385026</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1103526498077378</v>
+        <v>0.1244262458430294</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5</v>
@@ -6603,19 +6603,19 @@
         <v>4495</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1740</v>
+        <v>1723</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9712</v>
+        <v>10226</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03296981924664825</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0127601639959866</v>
+        <v>0.01263845621079564</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0712308097886214</v>
+        <v>0.07500181449849024</v>
       </c>
     </row>
     <row r="29">
@@ -6632,19 +6632,19 @@
         <v>8747</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3867</v>
+        <v>4369</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14892</v>
+        <v>14767</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1080798282618432</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04778238301065182</v>
+        <v>0.05398696358504284</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1840111366694173</v>
+        <v>0.1824660984950166</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>7</v>
@@ -6653,19 +6653,19 @@
         <v>6416</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2717</v>
+        <v>2796</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11877</v>
+        <v>12348</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1157672715224032</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04902948241811209</v>
+        <v>0.05044839143743093</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2143157143853749</v>
+        <v>0.2228169721927172</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -6674,19 +6674,19 @@
         <v>15162</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8399</v>
+        <v>9183</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>22963</v>
+        <v>22834</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1112043685982386</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06159878483197711</v>
+        <v>0.0673491327995374</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1684148609021078</v>
+        <v>0.1674716582059244</v>
       </c>
     </row>
     <row r="30">
@@ -6703,19 +6703,19 @@
         <v>40343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30941</v>
+        <v>30933</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49270</v>
+        <v>48880</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4984972983682381</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3823178402333321</v>
+        <v>0.3822210573545601</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6088005230599997</v>
+        <v>0.6039771299165586</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>27</v>
@@ -6724,19 +6724,19 @@
         <v>25641</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18811</v>
+        <v>19457</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32868</v>
+        <v>34165</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4626757772650898</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3394327837977036</v>
+        <v>0.3510916535377372</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5930941851422942</v>
+        <v>0.6164993962507453</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -6745,19 +6745,19 @@
         <v>65984</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>54736</v>
+        <v>55173</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>77694</v>
+        <v>78248</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4839377388626667</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.401446860972234</v>
+        <v>0.404649768051171</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5698236997920403</v>
+        <v>0.5738826234971885</v>
       </c>
     </row>
     <row r="31">
@@ -6774,19 +6774,19 @@
         <v>20868</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>13437</v>
+        <v>13709</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>30008</v>
+        <v>29977</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2578464947820999</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1660290452659063</v>
+        <v>0.1693911062421995</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.370790062351582</v>
+        <v>0.3704005870334746</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -6795,19 +6795,19 @@
         <v>19912</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13009</v>
+        <v>13103</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26818</v>
+        <v>27290</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3593142380047841</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2347390404391676</v>
+        <v>0.2364363893418908</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4839154185027611</v>
+        <v>0.4924434842458374</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -6816,19 +6816,19 @@
         <v>40780</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31251</v>
+        <v>31737</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>51665</v>
+        <v>51995</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2990877821381767</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2291982839508918</v>
+        <v>0.2327653620541922</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3789228984380908</v>
+        <v>0.3813369913467811</v>
       </c>
     </row>
     <row r="32">
@@ -6845,19 +6845,19 @@
         <v>9058</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4646</v>
+        <v>4368</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16502</v>
+        <v>15964</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1119277323443679</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05740511173453183</v>
+        <v>0.05396754752217424</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2039066744952739</v>
+        <v>0.1972516000411353</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4456</v>
+        <v>4471</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01566077730586177</v>
@@ -6878,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08041175663393235</v>
+        <v>0.08068520593002859</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -6887,19 +6887,19 @@
         <v>9926</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4930</v>
+        <v>4696</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17555</v>
+        <v>17033</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07280029115426975</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03615860981313738</v>
+        <v>0.03444366220033923</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.128748790469746</v>
+        <v>0.1249204540617064</v>
       </c>
     </row>
     <row r="33">
@@ -6991,19 +6991,19 @@
         <v>18081</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11257</v>
+        <v>11216</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>27150</v>
+        <v>28083</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1681877618550736</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1047110351801732</v>
+        <v>0.1043352447152579</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2525498827686029</v>
+        <v>0.2612284652385954</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -7012,19 +7012,19 @@
         <v>11140</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6162</v>
+        <v>6172</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>18351</v>
+        <v>18623</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1474128858692187</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08154512273516344</v>
+        <v>0.08168088912512866</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2428392510892233</v>
+        <v>0.2464410957697121</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>27</v>
@@ -7033,19 +7033,19 @@
         <v>29220</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>19854</v>
+        <v>19426</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>40959</v>
+        <v>41327</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1596122562700098</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1084508094448667</v>
+        <v>0.1061116964056239</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2237317556572024</v>
+        <v>0.2257432271228932</v>
       </c>
     </row>
     <row r="35">
@@ -7062,19 +7062,19 @@
         <v>27136</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>18656</v>
+        <v>18262</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37477</v>
+        <v>37306</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2524228733048035</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1735407022562271</v>
+        <v>0.1698788481687861</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3486195595318698</v>
+        <v>0.3470254003040662</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>26</v>
@@ -7083,19 +7083,19 @@
         <v>25204</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>17326</v>
+        <v>17033</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32402</v>
+        <v>33877</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3335315187754166</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2292799698605908</v>
+        <v>0.2253977008973305</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4287813908427838</v>
+        <v>0.4482938629269592</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>51</v>
@@ -7104,19 +7104,19 @@
         <v>52341</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>40921</v>
+        <v>40688</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>64891</v>
+        <v>64215</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2859031040750755</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2235229230266305</v>
+        <v>0.2222547241149707</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3544582956740979</v>
+        <v>0.350764511965066</v>
       </c>
     </row>
     <row r="36">
@@ -7133,19 +7133,19 @@
         <v>45620</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>35608</v>
+        <v>35447</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>56810</v>
+        <v>55652</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4243617217354868</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3312344582330324</v>
+        <v>0.3297351436936719</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5284588857925296</v>
+        <v>0.5176871964627203</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -7154,19 +7154,19 @@
         <v>30418</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22094</v>
+        <v>21645</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>38893</v>
+        <v>38535</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4025239543132544</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2923706041096954</v>
+        <v>0.2864334504583713</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5146788652737824</v>
+        <v>0.5099411569312906</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>77</v>
@@ -7175,19 +7175,19 @@
         <v>76038</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>62741</v>
+        <v>64891</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>89584</v>
+        <v>90402</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4153474731487715</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.342713929061704</v>
+        <v>0.3544576327480962</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4893381279690491</v>
+        <v>0.4938092824942741</v>
       </c>
     </row>
     <row r="37">
@@ -7204,19 +7204,19 @@
         <v>10981</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5914</v>
+        <v>6031</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18651</v>
+        <v>19219</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1021499521280638</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05500933938371862</v>
+        <v>0.05609862166356469</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1734929950681053</v>
+        <v>0.1787803643482565</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>8</v>
@@ -7225,19 +7225,19 @@
         <v>7765</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3700</v>
+        <v>3873</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>13587</v>
+        <v>13840</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1027598931709908</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04895631318428287</v>
+        <v>0.0512584211963425</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1797991145144807</v>
+        <v>0.1831458425794817</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>19</v>
@@ -7246,19 +7246,19 @@
         <v>18747</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>11779</v>
+        <v>11470</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>27717</v>
+        <v>27600</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1024017251265521</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06434169247584741</v>
+        <v>0.06265470000854671</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1514003117834871</v>
+        <v>0.1507622126656305</v>
       </c>
     </row>
     <row r="38">
@@ -7275,19 +7275,19 @@
         <v>5684</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>2063</v>
+        <v>2013</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13095</v>
+        <v>12483</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05287769097657231</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01918723614267944</v>
+        <v>0.01872467577187734</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1218109240457024</v>
+        <v>0.1161147178762351</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>5179</v>
+        <v>5244</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01377174787111944</v>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.06853067331480864</v>
+        <v>0.0693933364131538</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -7317,19 +7317,19 @@
         <v>6725</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2696</v>
+        <v>2677</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>13985</v>
+        <v>14530</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03673544137959114</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01472707359068935</v>
+        <v>0.01462270964362157</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07639059106719324</v>
+        <v>0.07936831125808046</v>
       </c>
     </row>
     <row r="39">
@@ -7421,19 +7421,19 @@
         <v>68312</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>53673</v>
+        <v>53959</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>85630</v>
+        <v>86446</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1903500294812139</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1495590501361578</v>
+        <v>0.1503549970760654</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2386067526417348</v>
+        <v>0.2408810636292273</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>53</v>
@@ -7442,19 +7442,19 @@
         <v>56292</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>44694</v>
+        <v>43763</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>71364</v>
+        <v>71448</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.198320358672376</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1574595230930638</v>
+        <v>0.1541783023921664</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2514196328443046</v>
+        <v>0.2517139596369229</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>113</v>
@@ -7463,19 +7463,19 @@
         <v>124604</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>104329</v>
+        <v>103304</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>145594</v>
+        <v>147091</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1938699801314217</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1623233430974995</v>
+        <v>0.1607291132291179</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.226528005166682</v>
+        <v>0.2288560394781354</v>
       </c>
     </row>
     <row r="41">
@@ -7492,19 +7492,19 @@
         <v>73361</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>58581</v>
+        <v>57748</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>90641</v>
+        <v>90029</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2044182782192824</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1632355894309737</v>
+        <v>0.1609147478376914</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2525696031998927</v>
+        <v>0.2508658787190315</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>47</v>
@@ -7513,19 +7513,19 @@
         <v>49029</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>37810</v>
+        <v>38316</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>63630</v>
+        <v>63286</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1727327299234344</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1332050173664319</v>
+        <v>0.1349875664480229</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2241705378669421</v>
+        <v>0.2229586806834696</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>111</v>
@@ -7534,19 +7534,19 @@
         <v>122390</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>102916</v>
+        <v>102053</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>144400</v>
+        <v>146429</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1904249331953612</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1601256384045293</v>
+        <v>0.1587825604210106</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2246698342810716</v>
+        <v>0.2278272946829895</v>
       </c>
     </row>
     <row r="42">
@@ -7563,19 +7563,19 @@
         <v>116103</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>98800</v>
+        <v>97059</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>134339</v>
+        <v>135964</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3235203343638787</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2753049945547321</v>
+        <v>0.2704542595529723</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3743347223551412</v>
+        <v>0.3788610967763641</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>92</v>
@@ -7584,19 +7584,19 @@
         <v>93495</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>77370</v>
+        <v>78463</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>109890</v>
+        <v>110316</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3293872894813453</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2725764283561946</v>
+        <v>0.2764269071859933</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3871468063317066</v>
+        <v>0.388648067495631</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>194</v>
@@ -7605,19 +7605,19 @@
         <v>209599</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>185100</v>
+        <v>184563</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>236369</v>
+        <v>234885</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.326111368182578</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2879940892966216</v>
+        <v>0.2871588405596124</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3677632152763965</v>
+        <v>0.3654544427882996</v>
       </c>
     </row>
     <row r="43">
@@ -7634,19 +7634,19 @@
         <v>89408</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>71865</v>
+        <v>72197</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>108260</v>
+        <v>108769</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2491331556414891</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2002519446733602</v>
+        <v>0.2011753325752544</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3016655368850034</v>
+        <v>0.3030834102718009</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>58</v>
@@ -7655,19 +7655,19 @@
         <v>61718</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>47352</v>
+        <v>49125</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>77059</v>
+        <v>77107</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2174346435721198</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1668239426578859</v>
+        <v>0.1730691616406084</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2714820737517445</v>
+        <v>0.2716502073826515</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>134</v>
@@ -7676,19 +7676,19 @@
         <v>151126</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>128535</v>
+        <v>130854</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>172765</v>
+        <v>177637</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2351340854032209</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1999863686540446</v>
+        <v>0.2035941071390972</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2688026001307963</v>
+        <v>0.2763834633238314</v>
       </c>
     </row>
     <row r="44">
@@ -7705,19 +7705,19 @@
         <v>11692</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>5950</v>
+        <v>6250</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>20939</v>
+        <v>20627</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03257820229413588</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01657994333444545</v>
+        <v>0.0174155104231593</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05834504819930039</v>
+        <v>0.05747631131163633</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>23</v>
@@ -7726,19 +7726,19 @@
         <v>23311</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14791</v>
+        <v>15297</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>33759</v>
+        <v>34265</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.08212497835072445</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05210896976237201</v>
+        <v>0.05389058486385173</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1189329443859091</v>
+        <v>0.1207160935190923</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>33</v>
@@ -7747,19 +7747,19 @@
         <v>35002</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>24599</v>
+        <v>24463</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>48230</v>
+        <v>48405</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05445963308741814</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.03827250732664238</v>
+        <v>0.03806186151473431</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07503981747148911</v>
+        <v>0.07531263441987524</v>
       </c>
     </row>
     <row r="45">
@@ -7851,19 +7851,19 @@
         <v>21289</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>13350</v>
+        <v>12832</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>33190</v>
+        <v>31905</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.06492224055980823</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04071193511899793</v>
+        <v>0.03913128116901027</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1012153600461879</v>
+        <v>0.09729801231176934</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -7872,19 +7872,19 @@
         <v>17060</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>10393</v>
+        <v>10206</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>26419</v>
+        <v>26295</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07192112200648094</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04381591633686322</v>
+        <v>0.04302462334726114</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1113744828468596</v>
+        <v>0.110854236318106</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>35</v>
@@ -7893,19 +7893,19 @@
         <v>38349</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>27407</v>
+        <v>27048</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>52285</v>
+        <v>52925</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.06785999379861565</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.04849766925965671</v>
+        <v>0.04786328815594498</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09252039157212275</v>
+        <v>0.09365346371588902</v>
       </c>
     </row>
     <row r="47">
@@ -7922,19 +7922,19 @@
         <v>57070</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>44604</v>
+        <v>44686</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>73514</v>
+        <v>71899</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1740390352888449</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.13602514538418</v>
+        <v>0.1362737026472178</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2241868137031967</v>
+        <v>0.2192625016706346</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>40</v>
@@ -7943,19 +7943,19 @@
         <v>41086</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>30557</v>
+        <v>29958</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>52553</v>
+        <v>53691</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1732075079914975</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1288190345490924</v>
+        <v>0.1262942537650251</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2215503440704514</v>
+        <v>0.2263471084732833</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>96</v>
@@ -7964,19 +7964,19 @@
         <v>98156</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>80797</v>
+        <v>80829</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>116074</v>
+        <v>116061</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1736900049431315</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1429734453123599</v>
+        <v>0.1430298309870314</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.205397272840676</v>
+        <v>0.2053745012391318</v>
       </c>
     </row>
     <row r="48">
@@ -7993,19 +7993,19 @@
         <v>113738</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>97817</v>
+        <v>98428</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>131593</v>
+        <v>132755</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3468552148800967</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.298300196060191</v>
+        <v>0.300164994419961</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.4013060034622242</v>
+        <v>0.4048486607188039</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>89</v>
@@ -8014,19 +8014,19 @@
         <v>91161</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>77146</v>
+        <v>76285</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>106699</v>
+        <v>105579</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3843099670462815</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3252274139059944</v>
+        <v>0.3215964517003143</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.4498120539487017</v>
+        <v>0.4450919574410856</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>198</v>
@@ -8035,19 +8035,19 @@
         <v>204899</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>180965</v>
+        <v>181511</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>227861</v>
+        <v>229176</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3625767012809342</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3202243461007007</v>
+        <v>0.3211909770280909</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.403208109190773</v>
+        <v>0.4055352107561744</v>
       </c>
     </row>
     <row r="49">
@@ -8064,19 +8064,19 @@
         <v>102826</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>86552</v>
+        <v>86750</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>119997</v>
+        <v>119723</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3135755840813265</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2639474650109335</v>
+        <v>0.2645508118204126</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3659414272808016</v>
+        <v>0.3651059971416403</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>70</v>
@@ -8085,19 +8085,19 @@
         <v>74444</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>60274</v>
+        <v>60926</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>88908</v>
+        <v>89624</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3138335137163891</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2540970392444355</v>
+        <v>0.2568487214287465</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3748106620438725</v>
+        <v>0.377828754387492</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>168</v>
@@ -8106,19 +8106,19 @@
         <v>177269</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>156126</v>
+        <v>156162</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>201507</v>
+        <v>198440</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3136838490414581</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2762714324287116</v>
+        <v>0.2763350900752879</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3565741318126201</v>
+        <v>0.3511473453042052</v>
       </c>
     </row>
     <row r="50">
@@ -8135,19 +8135,19 @@
         <v>32991</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>22960</v>
+        <v>23264</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>44658</v>
+        <v>44853</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1006079251899236</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07001924968006905</v>
+        <v>0.07094455732794117</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1361893524954236</v>
+        <v>0.1367819751814467</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>13</v>
@@ -8156,19 +8156,19 @@
         <v>13456</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>7895</v>
+        <v>7874</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>22887</v>
+        <v>22093</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.05672788923935095</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.03328255006574952</v>
+        <v>0.03319337800093761</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09648585370675358</v>
+        <v>0.09313852724696919</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>45</v>
@@ -8177,19 +8177,19 @@
         <v>46447</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>34759</v>
+        <v>34252</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>61956</v>
+        <v>60450</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.08218945093586059</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.06150686786559043</v>
+        <v>0.06061105653292861</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1096339286529496</v>
+        <v>0.106969347357882</v>
       </c>
     </row>
     <row r="51">
@@ -8281,19 +8281,19 @@
         <v>231877</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>204178</v>
+        <v>203142</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>264011</v>
+        <v>259881</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1637159969347149</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.1441592188926724</v>
+        <v>0.1434280426678312</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.1864038083341645</v>
+        <v>0.1834879635290947</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>195</v>
@@ -8302,19 +8302,19 @@
         <v>202311</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>177111</v>
+        <v>178845</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>229011</v>
+        <v>227042</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.1960408783179033</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.1716223228568156</v>
+        <v>0.1733023812806761</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.2219139842231718</v>
+        <v>0.220005796654822</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>404</v>
@@ -8323,19 +8323,19 @@
         <v>434188</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>396372</v>
+        <v>396447</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>474046</v>
+        <v>476049</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.1773411381764914</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.1618956187281392</v>
+        <v>0.1619262960194554</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1936209095399546</v>
+        <v>0.1944391158781468</v>
       </c>
     </row>
     <row r="53">
@@ -8352,19 +8352,19 @@
         <v>255044</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>226028</v>
+        <v>224683</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>284888</v>
+        <v>285401</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1800731570620527</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1595861792960646</v>
+        <v>0.1586364022959</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2011444835171799</v>
+        <v>0.2015063921979406</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>172</v>
@@ -8373,19 +8373,19 @@
         <v>173548</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>152728</v>
+        <v>149579</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>200184</v>
+        <v>197677</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.1681700114328585</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1479945270154294</v>
+        <v>0.1449430227301366</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1939805325433004</v>
+        <v>0.1915512375501022</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>409</v>
@@ -8394,19 +8394,19 @@
         <v>428593</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>387354</v>
+        <v>392485</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>465740</v>
+        <v>467723</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1750559061556486</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1582124113392527</v>
+        <v>0.1603078230194768</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1902285439232241</v>
+        <v>0.1910384442573141</v>
       </c>
     </row>
     <row r="54">
@@ -8423,19 +8423,19 @@
         <v>475576</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>441510</v>
+        <v>442158</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>514968</v>
+        <v>517607</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.3357789076133201</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.3117264246921225</v>
+        <v>0.3121843210828368</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.3635915534661086</v>
+        <v>0.365454459007458</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>340</v>
@@ -8444,19 +8444,19 @@
         <v>343633</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>314818</v>
+        <v>313812</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>377119</v>
+        <v>372314</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3329834617943147</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.3050612312652382</v>
+        <v>0.3040867047903057</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.365431958003904</v>
+        <v>0.3607754583568744</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>790</v>
@@ -8465,19 +8465,19 @@
         <v>819209</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>773062</v>
+        <v>772088</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>868095</v>
+        <v>866703</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.3346006095813437</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.3157523191482673</v>
+        <v>0.3153546294038665</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3545679962765459</v>
+        <v>0.3539994961835806</v>
       </c>
     </row>
     <row r="55">
@@ -8494,19 +8494,19 @@
         <v>306976</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>274901</v>
+        <v>276962</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>340099</v>
+        <v>341707</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2167395107041246</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1940929048184969</v>
+        <v>0.1955479613335865</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2401255124686613</v>
+        <v>0.241261215674916</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>208</v>
@@ -8515,19 +8515,19 @@
         <v>216918</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>192019</v>
+        <v>190375</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>245123</v>
+        <v>243686</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2101957463130285</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1860685901787947</v>
+        <v>0.1844749862284905</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2375268603338174</v>
+        <v>0.2361335751837788</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>492</v>
@@ -8536,19 +8536,19 @@
         <v>523894</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>482431</v>
+        <v>482990</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>569550</v>
+        <v>565542</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2139812727689357</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1970460605667629</v>
+        <v>0.1972742430980256</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2326289458647547</v>
+        <v>0.2309920289204423</v>
       </c>
     </row>
     <row r="56">
@@ -8565,19 +8565,19 @@
         <v>146863</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>124468</v>
+        <v>124494</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>172969</v>
+        <v>170184</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.1036924276857878</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.08788035890290266</v>
+        <v>0.08789853571113092</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1221243396624207</v>
+        <v>0.1201578564676433</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>93</v>
@@ -8586,19 +8586,19 @@
         <v>95572</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>76796</v>
+        <v>78182</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>114945</v>
+        <v>115347</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.09260990214189495</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.07441581647929542</v>
+        <v>0.07575865959039262</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1113831938531421</v>
+        <v>0.1117723509290361</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>230</v>
@@ -8607,19 +8607,19 @@
         <v>242435</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>215208</v>
+        <v>213535</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>274943</v>
+        <v>273812</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.09902107331758064</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.08790051162433046</v>
+        <v>0.08721695239943328</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.1122986445632419</v>
+        <v>0.1118369791357797</v>
       </c>
     </row>
     <row r="57">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3620</v>
+        <v>3212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03065542200507035</v>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.110572806889466</v>
+        <v>0.09810519108586437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3646</v>
+        <v>3504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0136403656723183</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04955237588993722</v>
+        <v>0.04762355822081483</v>
       </c>
     </row>
     <row r="5">
@@ -9018,19 +9018,19 @@
         <v>7194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2637</v>
+        <v>2599</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15838</v>
+        <v>15313</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1761496046193203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06457421287424565</v>
+        <v>0.06363449716663754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3878029010769497</v>
+        <v>0.3749395797751646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -9039,19 +9039,19 @@
         <v>8228</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4788</v>
+        <v>4964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12779</v>
+        <v>12689</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2512998009344886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1462472475853623</v>
+        <v>0.1516275087642268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.390311358190554</v>
+        <v>0.3875444685931355</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -9060,19 +9060,19 @@
         <v>15422</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9963</v>
+        <v>9986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24560</v>
+        <v>23628</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2095882621565044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1354013472177074</v>
+        <v>0.1357127954359187</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3337771439012529</v>
+        <v>0.3211142142175014</v>
       </c>
     </row>
     <row r="6">
@@ -9089,19 +9089,19 @@
         <v>31774</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24313</v>
+        <v>23845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37034</v>
+        <v>36602</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7779900493553588</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5952991999393581</v>
+        <v>0.5838592736590327</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.906779818413974</v>
+        <v>0.8962102504323063</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>38</v>
@@ -9110,19 +9110,19 @@
         <v>21935</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17422</v>
+        <v>17271</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25957</v>
+        <v>25636</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6699592964990569</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5321253468734386</v>
+        <v>0.5275039406835325</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7927975283181923</v>
+        <v>0.7829901373599861</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>70</v>
@@ -9131,19 +9131,19 @@
         <v>53709</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44673</v>
+        <v>45461</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60283</v>
+        <v>59995</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7299209354292131</v>
+        <v>0.7299209354292132</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6071187857597616</v>
+        <v>0.6178267127678656</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8192567558784744</v>
+        <v>0.8153481079063803</v>
       </c>
     </row>
     <row r="7">
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6320</v>
+        <v>6217</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04586034602532083</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1547381626762802</v>
+        <v>0.1522149039249091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5251</v>
+        <v>6211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04808548056138416</v>
@@ -9193,7 +9193,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1603910126269605</v>
+        <v>0.1896992615273829</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -9202,19 +9202,19 @@
         <v>3447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>952</v>
+        <v>990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8611</v>
+        <v>8746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0468504367419643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01293698288794685</v>
+        <v>0.01345714021655029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1170223770369673</v>
+        <v>0.1188580592155693</v>
       </c>
     </row>
     <row r="8">
@@ -9353,19 +9353,19 @@
         <v>18771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11027</v>
+        <v>10729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27898</v>
+        <v>27668</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3624400545211131</v>
+        <v>0.3624400545211132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2129135563865244</v>
+        <v>0.2071658193263705</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5386640463276486</v>
+        <v>0.534224500702641</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -9374,19 +9374,19 @@
         <v>14651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9029</v>
+        <v>10067</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20502</v>
+        <v>21636</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3403731336873702</v>
+        <v>0.3403731336873701</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2097599000383874</v>
+        <v>0.2338717559429613</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4762987183078848</v>
+        <v>0.5026442417759206</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -9395,19 +9395,19 @@
         <v>33422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23378</v>
+        <v>23365</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45090</v>
+        <v>45548</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.352424244157911</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2465090047714275</v>
+        <v>0.2463800773951778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4754596551659113</v>
+        <v>0.4802845664963944</v>
       </c>
     </row>
     <row r="11">
@@ -9424,19 +9424,19 @@
         <v>12378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5801</v>
+        <v>6203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20706</v>
+        <v>21374</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2390044906972605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1120112802366752</v>
+        <v>0.1197704961348735</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3998053877606244</v>
+        <v>0.4127067686532304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -9445,19 +9445,19 @@
         <v>3756</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1444</v>
+        <v>1384</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8999</v>
+        <v>7958</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08725582239998092</v>
+        <v>0.08725582239998091</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03355499966308906</v>
+        <v>0.03216464849694527</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.209069424631268</v>
+        <v>0.1848861324821029</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -9466,19 +9466,19 @@
         <v>16134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8881</v>
+        <v>9021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27172</v>
+        <v>25573</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1701282801926249</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0936481137717856</v>
+        <v>0.0951225974440796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2865145105812548</v>
+        <v>0.2696566603489644</v>
       </c>
     </row>
     <row r="12">
@@ -9495,19 +9495,19 @@
         <v>13704</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6871</v>
+        <v>7211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23101</v>
+        <v>22808</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2645924215513232</v>
+        <v>0.2645924215513233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1326727377911657</v>
+        <v>0.1392348429667659</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4460475490645521</v>
+        <v>0.4403849712096853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -9516,19 +9516,19 @@
         <v>14171</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9036</v>
+        <v>8744</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20212</v>
+        <v>20442</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3292137350214776</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2099152416423837</v>
+        <v>0.2031374864270816</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4695633024929963</v>
+        <v>0.4749082336675186</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -9537,19 +9537,19 @@
         <v>27874</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19194</v>
+        <v>18459</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>37745</v>
+        <v>38556</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2939229668509829</v>
+        <v>0.293922966850983</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2023952394508562</v>
+        <v>0.1946412517873856</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3980068557111735</v>
+        <v>0.4065612633945343</v>
       </c>
     </row>
     <row r="13">
@@ -9566,19 +9566,19 @@
         <v>5602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1505</v>
+        <v>1423</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13351</v>
+        <v>13747</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1081713974453435</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02905124254418658</v>
+        <v>0.02747492116270349</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.25779300160117</v>
+        <v>0.2654285149452587</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -9587,19 +9587,19 @@
         <v>5067</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1840</v>
+        <v>2028</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10141</v>
+        <v>10286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1177104478175054</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04275478784131781</v>
+        <v>0.04710766374562113</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2356017638217833</v>
+        <v>0.2389627560344069</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -9608,19 +9608,19 @@
         <v>10669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5265</v>
+        <v>5802</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18621</v>
+        <v>18801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1125010146263011</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05551776795911628</v>
+        <v>0.06118142763905566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1963518496248544</v>
+        <v>0.1982446820442728</v>
       </c>
     </row>
     <row r="14">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5766</v>
+        <v>5699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0257916357849597</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1113345406114923</v>
+        <v>0.1100332766765399</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -9658,19 +9658,19 @@
         <v>5400</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2080</v>
+        <v>2169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11821</v>
+        <v>10435</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1254468610736659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04832363114569976</v>
+        <v>0.05038370730429684</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2746152788962045</v>
+        <v>0.2424195280979468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -9679,19 +9679,19 @@
         <v>6736</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2936</v>
+        <v>2973</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13250</v>
+        <v>13044</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07102349417217996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03096403060759542</v>
+        <v>0.0313463803384947</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1397126962608034</v>
+        <v>0.1375418921996182</v>
       </c>
     </row>
     <row r="15">
@@ -9783,19 +9783,19 @@
         <v>7369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3501</v>
+        <v>3349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12608</v>
+        <v>12505</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2558408444969049</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1215286823093185</v>
+        <v>0.1162545635046054</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4376883543268459</v>
+        <v>0.4341403607620419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -9804,19 +9804,19 @@
         <v>5163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2510</v>
+        <v>2384</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9123</v>
+        <v>9008</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1892634054935139</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09200162813108449</v>
+        <v>0.08738704325587039</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3344204066097696</v>
+        <v>0.3302096224754071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -9825,19 +9825,19 @@
         <v>12533</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7516</v>
+        <v>7133</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18572</v>
+        <v>19125</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2234565843413054</v>
+        <v>0.2234565843413055</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1340049050340706</v>
+        <v>0.1271833089968465</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3311365357334375</v>
+        <v>0.3409896923739284</v>
       </c>
     </row>
     <row r="17">
@@ -9854,19 +9854,19 @@
         <v>4018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>997</v>
+        <v>1125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9241</v>
+        <v>8956</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1394968591622522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03461114036404331</v>
+        <v>0.03904222849104962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3208162943225605</v>
+        <v>0.3109125080217608</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -9875,19 +9875,19 @@
         <v>2731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>857</v>
+        <v>713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6811</v>
+        <v>6165</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1001036998083495</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03142005365209737</v>
+        <v>0.02614702903586265</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.249646961863411</v>
+        <v>0.2259750651072452</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -9896,19 +9896,19 @@
         <v>6749</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3105</v>
+        <v>2840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12145</v>
+        <v>12267</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1203354384172639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05536630211251595</v>
+        <v>0.05064137350962534</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2165470905297392</v>
+        <v>0.2187144880831934</v>
       </c>
     </row>
     <row r="18">
@@ -9925,19 +9925,19 @@
         <v>6842</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2914</v>
+        <v>2885</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13263</v>
+        <v>12402</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2375386705782455</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1011565951361517</v>
+        <v>0.1001672650767092</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4604513062027085</v>
+        <v>0.4305626600501234</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -9946,19 +9946,19 @@
         <v>7542</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4156</v>
+        <v>4147</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11950</v>
+        <v>12331</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2764522320198574</v>
+        <v>0.2764522320198573</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1523519049653995</v>
+        <v>0.1520246861848648</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4380461949825862</v>
+        <v>0.4519916498029088</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>16</v>
@@ -9967,19 +9967,19 @@
         <v>14384</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8778</v>
+        <v>8650</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>20838</v>
+        <v>21637</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2564668077395724</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1565113006474397</v>
+        <v>0.1542289732737405</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3715387855373252</v>
+        <v>0.385778532233808</v>
       </c>
     </row>
     <row r="19">
@@ -9996,19 +9996,19 @@
         <v>8743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4193</v>
+        <v>4382</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14778</v>
+        <v>15051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3035088188011661</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1455502651518232</v>
+        <v>0.1521185072698119</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.513018949676984</v>
+        <v>0.5225173803181636</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -10017,19 +10017,19 @@
         <v>8522</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5102</v>
+        <v>5095</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12864</v>
+        <v>13120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3123935898022113</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.187032915481546</v>
+        <v>0.1867757031513631</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.471535456173962</v>
+        <v>0.4809111853653772</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>20</v>
@@ -10038,19 +10038,19 @@
         <v>17265</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11225</v>
+        <v>10784</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24164</v>
+        <v>24132</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3078305040421097</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2001440118888299</v>
+        <v>0.1922710825726672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4308461455609673</v>
+        <v>0.4302690059002763</v>
       </c>
     </row>
     <row r="20">
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5685</v>
+        <v>6474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06361480696143136</v>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1973622835154654</v>
+        <v>0.2247370220333857</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -10088,19 +10088,19 @@
         <v>3322</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1231</v>
+        <v>1260</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6935</v>
+        <v>7434</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1217870728760679</v>
+        <v>0.1217870728760678</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04510860486206304</v>
+        <v>0.04617563550731568</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2542068299887094</v>
+        <v>0.2724880837673505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -10109,19 +10109,19 @@
         <v>5155</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2102</v>
+        <v>2003</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>10444</v>
+        <v>9724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09191066545974862</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03748637577706963</v>
+        <v>0.03571158433913563</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1862142096649146</v>
+        <v>0.173382572086047</v>
       </c>
     </row>
     <row r="21">
@@ -10213,19 +10213,19 @@
         <v>25656</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14964</v>
+        <v>15892</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38457</v>
+        <v>38032</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3660779792690069</v>
+        <v>0.3660779792690068</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2135208796715602</v>
+        <v>0.226762378301079</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5487313227574266</v>
+        <v>0.5426719287450217</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -10234,19 +10234,19 @@
         <v>23030</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16339</v>
+        <v>15745</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30406</v>
+        <v>29908</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4881905380292687</v>
+        <v>0.4881905380292686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3463591390979919</v>
+        <v>0.3337498508536837</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6445418730130551</v>
+        <v>0.6339827188998519</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -10255,19 +10255,19 @@
         <v>48687</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34421</v>
+        <v>34089</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63068</v>
+        <v>61689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4152060080456629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2935478134442841</v>
+        <v>0.2907170454856883</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.537852825527359</v>
+        <v>0.5260908495892866</v>
       </c>
     </row>
     <row r="23">
@@ -10284,19 +10284,19 @@
         <v>9583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2575</v>
+        <v>2423</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>21505</v>
+        <v>21393</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1367440732063415</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03674379657746429</v>
+        <v>0.03457749013967251</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.306848391582655</v>
+        <v>0.3052533633342139</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -10305,19 +10305,19 @@
         <v>2542</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7043</v>
+        <v>8913</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05387915454823885</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01169539057036674</v>
+        <v>0.01233175873353501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1492850440436756</v>
+        <v>0.1889298343322469</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -10326,19 +10326,19 @@
         <v>12125</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5232</v>
+        <v>4811</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26946</v>
+        <v>25629</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1034060599033616</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04461681044819851</v>
+        <v>0.04103020418248505</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2298032064743911</v>
+        <v>0.2185705448093052</v>
       </c>
     </row>
     <row r="24">
@@ -10355,19 +10355,19 @@
         <v>23736</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12944</v>
+        <v>13768</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37289</v>
+        <v>37238</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3386891812381082</v>
+        <v>0.3386891812381081</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1846900451678616</v>
+        <v>0.1964589730074692</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5320634740470603</v>
+        <v>0.5313479650464792</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -10376,19 +10376,19 @@
         <v>6099</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2733</v>
+        <v>2506</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11949</v>
+        <v>12010</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1292949272715362</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05792486366029058</v>
+        <v>0.0531284320652281</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2532953844089971</v>
+        <v>0.2545781884567391</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -10397,19 +10397,19 @@
         <v>29836</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18352</v>
+        <v>18697</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44990</v>
+        <v>45225</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.254446192318906</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1565090937696368</v>
+        <v>0.1594462662133581</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3836834185471886</v>
+        <v>0.3856805554559928</v>
       </c>
     </row>
     <row r="25">
@@ -10426,19 +10426,19 @@
         <v>3284</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10092</v>
+        <v>9941</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04686152922657736</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01160492568058644</v>
+        <v>0.01138792036911748</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1440018735287272</v>
+        <v>0.1418505586891913</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -10447,19 +10447,19 @@
         <v>6795</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2517</v>
+        <v>2231</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17351</v>
+        <v>17184</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1440407280101377</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05334629459284059</v>
+        <v>0.04729059729223495</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3678080069366237</v>
+        <v>0.3642544699113827</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -10468,19 +10468,19 @@
         <v>10079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4184</v>
+        <v>4680</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>20737</v>
+        <v>22406</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08595842902788403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03568558649773797</v>
+        <v>0.03991261241515277</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1768447863006653</v>
+        <v>0.1910778089022253</v>
       </c>
     </row>
     <row r="26">
@@ -10497,19 +10497,19 @@
         <v>7823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1844</v>
+        <v>1716</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22404</v>
+        <v>20097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.111627237059966</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02630590380302959</v>
+        <v>0.02448786136567203</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3196789106878763</v>
+        <v>0.2867615349247091</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -10518,19 +10518,19 @@
         <v>8708</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4348</v>
+        <v>3951</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16169</v>
+        <v>16351</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1845946521408184</v>
+        <v>0.1845946521408185</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09216557924953786</v>
+        <v>0.08375173219852876</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3427417142725088</v>
+        <v>0.3466063305448112</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -10539,19 +10539,19 @@
         <v>16532</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8940</v>
+        <v>8533</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>30884</v>
+        <v>31964</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1409833107041855</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07624113130957398</v>
+        <v>0.0727721338387031</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2633857445442224</v>
+        <v>0.2725899568625497</v>
       </c>
     </row>
     <row r="27">
@@ -10643,19 +10643,19 @@
         <v>2934</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6496</v>
+        <v>6757</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1323169956520534</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03349701584451655</v>
+        <v>0.03307669914839351</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2929850659619156</v>
+        <v>0.3047671433166942</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -10664,19 +10664,19 @@
         <v>2038</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7212</v>
+        <v>6437</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08758460914637288</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01825592524547573</v>
+        <v>0.01859227542040195</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3100047476250128</v>
+        <v>0.2766816369472602</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -10685,19 +10685,19 @@
         <v>4971</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2232</v>
+        <v>2170</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9960</v>
+        <v>9814</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1094127709325926</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04911255946205551</v>
+        <v>0.04774883083797052</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2192121673089259</v>
+        <v>0.2159929523008065</v>
       </c>
     </row>
     <row r="29">
@@ -10714,19 +10714,19 @@
         <v>2207</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5764</v>
+        <v>5451</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09952011799885822</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03125346870237606</v>
+        <v>0.0304617785763915</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2599787397159331</v>
+        <v>0.2458309887964097</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -10735,19 +10735,19 @@
         <v>4380</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2153</v>
+        <v>2082</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7536</v>
+        <v>7482</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.188277539518722</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09254506007912809</v>
+        <v>0.08950710002533876</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.323907624900053</v>
+        <v>0.3216185102025811</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>13</v>
@@ -10756,19 +10756,19 @@
         <v>6587</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3713</v>
+        <v>3648</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10769</v>
+        <v>10817</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1449663838213337</v>
+        <v>0.1449663838213336</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08171211270010308</v>
+        <v>0.08028291249949078</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.237002471535446</v>
+        <v>0.2380758077183643</v>
       </c>
     </row>
     <row r="30">
@@ -10785,19 +10785,19 @@
         <v>13507</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8995</v>
+        <v>8946</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17179</v>
+        <v>17283</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6092067075513959</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4057032019598854</v>
+        <v>0.4034815975704786</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7748134053446516</v>
+        <v>0.7794763107897184</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -10806,19 +10806,19 @@
         <v>14928</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10730</v>
+        <v>10972</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18183</v>
+        <v>18228</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6416670078772818</v>
+        <v>0.6416670078772819</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4611969506214785</v>
+        <v>0.4716128965310186</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7815681179800377</v>
+        <v>0.7835158853718194</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>38</v>
@@ -10827,19 +10827,19 @@
         <v>28436</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22361</v>
+        <v>22908</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>33603</v>
+        <v>33419</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.6258272831835696</v>
+        <v>0.6258272831835695</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4921261320363604</v>
+        <v>0.5041768326743779</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7395555481931682</v>
+        <v>0.7355050752883555</v>
       </c>
     </row>
     <row r="31">
@@ -10856,19 +10856,19 @@
         <v>3524</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1351</v>
+        <v>1281</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7217</v>
+        <v>7313</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1589561787976923</v>
+        <v>0.1589561787976922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06091779138648275</v>
+        <v>0.05775903057176177</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3254801250677821</v>
+        <v>0.3298080741956539</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -10877,19 +10877,19 @@
         <v>1919</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5244</v>
+        <v>4968</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08247084345762312</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01787162933421927</v>
+        <v>0.01778246688733168</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2254132285850651</v>
+        <v>0.2135513002173883</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>8</v>
@@ -10898,19 +10898,19 @@
         <v>5443</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2532</v>
+        <v>2539</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9415</v>
+        <v>9875</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1197935620625042</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0557243158017523</v>
+        <v>0.05587842525061557</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.207206126092557</v>
+        <v>0.2173447401243147</v>
       </c>
     </row>
     <row r="32">
@@ -11049,19 +11049,19 @@
         <v>12863</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7754</v>
+        <v>7696</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18019</v>
+        <v>18722</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3844344824506188</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2317419345223662</v>
+        <v>0.2299921054235851</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5385210592822161</v>
+        <v>0.5595423811708652</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>10</v>
@@ -11070,19 +11070,19 @@
         <v>7073</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3529</v>
+        <v>3513</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>10864</v>
+        <v>10604</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3570028017429559</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1781362739440685</v>
+        <v>0.1773437297644392</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5483770912000031</v>
+        <v>0.5352589450075989</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -11091,19 +11091,19 @@
         <v>19936</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14113</v>
+        <v>13619</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26851</v>
+        <v>26185</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3742328850253395</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2649212237129444</v>
+        <v>0.2556612501408527</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5040400323907072</v>
+        <v>0.4915509718315224</v>
       </c>
     </row>
     <row r="35">
@@ -11120,19 +11120,19 @@
         <v>2488</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6640</v>
+        <v>6506</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07436610266882783</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02256607005829257</v>
+        <v>0.0224380911823034</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.198435368702442</v>
+        <v>0.1944472258212815</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -11144,7 +11144,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3751</v>
+        <v>3838</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05858360609195604</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1893529455419073</v>
+        <v>0.1937098653232942</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>5</v>
@@ -11162,19 +11162,19 @@
         <v>3649</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1184</v>
+        <v>1313</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8339</v>
+        <v>7989</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06849673293684058</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02223393162521233</v>
+        <v>0.02464213497419916</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1565416164811193</v>
+        <v>0.1499664547206296</v>
       </c>
     </row>
     <row r="36">
@@ -11191,19 +11191,19 @@
         <v>13972</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9010</v>
+        <v>8565</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19490</v>
+        <v>19784</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.4175627401022399</v>
+        <v>0.41756274010224</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2692866987792468</v>
+        <v>0.2559700041035272</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5824881433098459</v>
+        <v>0.5912686137770294</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>9</v>
@@ -11212,19 +11212,19 @@
         <v>6294</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3025</v>
+        <v>3069</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10002</v>
+        <v>9932</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3177121465534966</v>
+        <v>0.3177121465534964</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1526965369384312</v>
+        <v>0.1548918592386624</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5048861315985842</v>
+        <v>0.5013242445139012</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>25</v>
@@ -11233,19 +11233,19 @@
         <v>20266</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14126</v>
+        <v>14015</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>26688</v>
+        <v>26833</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.3804291948078417</v>
+        <v>0.3804291948078415</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2651707084328186</v>
+        <v>0.2630976878908744</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5009826351440352</v>
+        <v>0.503714909996526</v>
       </c>
     </row>
     <row r="37">
@@ -11262,19 +11262,19 @@
         <v>3310</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7537</v>
+        <v>7015</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0989151087639694</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02474632538914463</v>
+        <v>0.0240456917171934</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.225250105715741</v>
+        <v>0.2096463727085406</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>6</v>
@@ -11283,19 +11283,19 @@
         <v>4513</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1820</v>
+        <v>1836</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8330</v>
+        <v>8242</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2277821170600125</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09185248644995099</v>
+        <v>0.09266289995756875</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4204727825770846</v>
+        <v>0.4160300036518251</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>10</v>
@@ -11304,19 +11304,19 @@
         <v>7822</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4166</v>
+        <v>3689</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>13887</v>
+        <v>13014</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1468395999406665</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07821044254154731</v>
+        <v>0.06924835570112882</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2606766496409004</v>
+        <v>0.2443034339610348</v>
       </c>
     </row>
     <row r="38">
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.02472156601434412</v>
@@ -11345,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1262605561533402</v>
+        <v>0.1263138038264718</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3280</v>
+        <v>4826</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.03891932855157892</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.165580960812181</v>
+        <v>0.2435911045408841</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5037</v>
+        <v>6264</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03000158728931184</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.09455207629477268</v>
+        <v>0.1175922529236472</v>
       </c>
     </row>
     <row r="39">
@@ -11479,19 +11479,19 @@
         <v>36410</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>26661</v>
+        <v>26582</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>47156</v>
+        <v>48523</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.3983191040470541</v>
+        <v>0.398319104047054</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2916677563293351</v>
+        <v>0.2907993620040364</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5158842484298383</v>
+        <v>0.5308298898115097</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>35</v>
@@ -11500,19 +11500,19 @@
         <v>28869</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>21290</v>
+        <v>20871</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>37692</v>
+        <v>36961</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.3096978038180488</v>
+        <v>0.309697803818049</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2283942155953077</v>
+        <v>0.2238963332745777</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4043507261170796</v>
+        <v>0.3965142473159886</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>64</v>
@@ -11521,19 +11521,19 @@
         <v>65279</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>52705</v>
+        <v>52030</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>78701</v>
+        <v>78920</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3535748167153956</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2854691361081795</v>
+        <v>0.2818132447552418</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4262742842295203</v>
+        <v>0.4274631758415614</v>
       </c>
     </row>
     <row r="41">
@@ -11550,19 +11550,19 @@
         <v>13084</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7690</v>
+        <v>7306</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>21042</v>
+        <v>21339</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.1431377171072371</v>
+        <v>0.143137717107237</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08412651107700557</v>
+        <v>0.07992131041804527</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2301998833758107</v>
+        <v>0.2334418414376858</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>11</v>
@@ -11571,19 +11571,19 @@
         <v>9112</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4832</v>
+        <v>4917</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16147</v>
+        <v>16257</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.09775112085163326</v>
+        <v>0.09775112085163329</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05183307852989991</v>
+        <v>0.05275155696810906</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1732164008539994</v>
+        <v>0.1743991234562615</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>23</v>
@@ -11592,19 +11592,19 @@
         <v>22196</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>14461</v>
+        <v>14021</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>32316</v>
+        <v>33578</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1202223356061875</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.07832384630828437</v>
+        <v>0.07594496139754187</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1750338808104828</v>
+        <v>0.1818729306444211</v>
       </c>
     </row>
     <row r="42">
@@ -11621,19 +11621,19 @@
         <v>20850</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13004</v>
+        <v>12564</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>31642</v>
+        <v>31837</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2280949642427624</v>
+        <v>0.2280949642427623</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1422666809935442</v>
+        <v>0.1374507825022015</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3461582472533929</v>
+        <v>0.348296197311229</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>29</v>
@@ -11642,19 +11642,19 @@
         <v>22353</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>15619</v>
+        <v>15953</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>30052</v>
+        <v>30176</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.2397964397057262</v>
+        <v>0.2397964397057263</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1675601387499608</v>
+        <v>0.1711366803764149</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3223927983173377</v>
+        <v>0.3237180025145923</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>45</v>
@@ -11663,19 +11663,19 @@
         <v>43203</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>32681</v>
+        <v>32639</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>56099</v>
+        <v>55168</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2340029590359582</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1770114971242732</v>
+        <v>0.1767856878867805</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3038545925965056</v>
+        <v>0.2988104006654987</v>
       </c>
     </row>
     <row r="43">
@@ -11692,19 +11692,19 @@
         <v>13745</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>6784</v>
+        <v>7164</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>24308</v>
+        <v>24243</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1503683922392106</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07421129470626855</v>
+        <v>0.07837828673836261</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2659265876377962</v>
+        <v>0.2652156471699995</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>29</v>
@@ -11713,19 +11713,19 @@
         <v>23726</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16259</v>
+        <v>16471</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>32015</v>
+        <v>32447</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2545300191316391</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.174423963966219</v>
+        <v>0.1766942439776309</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3434490210210727</v>
+        <v>0.3480829515096799</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>39</v>
@@ -11734,19 +11734,19 @@
         <v>37471</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>27066</v>
+        <v>26840</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>49405</v>
+        <v>50019</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2029588840347984</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.146599139310585</v>
+        <v>0.1453766487372334</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2675962275627017</v>
+        <v>0.2709214698740621</v>
       </c>
     </row>
     <row r="44">
@@ -11763,19 +11763,19 @@
         <v>7320</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3147</v>
+        <v>2948</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>14984</v>
+        <v>14466</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08007982236373593</v>
+        <v>0.0800798223637359</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0344257268852205</v>
+        <v>0.03224606550428531</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1639252325470831</v>
+        <v>0.1582586207630605</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>11</v>
@@ -11784,19 +11784,19 @@
         <v>9156</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>4989</v>
+        <v>4567</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>16263</v>
+        <v>15842</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.09822461649295243</v>
+        <v>0.09822461649295249</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05352124692326075</v>
+        <v>0.04899903510551454</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1744706316886488</v>
+        <v>0.1699504724763515</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>17</v>
@@ -11805,19 +11805,19 @@
         <v>16476</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>10386</v>
+        <v>9705</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>26579</v>
+        <v>25108</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.0892410046076603</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.05625555370548662</v>
+        <v>0.05256628069419673</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1439633224640647</v>
+        <v>0.135992474564573</v>
       </c>
     </row>
     <row r="45">
@@ -11909,19 +11909,19 @@
         <v>25209</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>16444</v>
+        <v>15324</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>37322</v>
+        <v>36161</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1841473682709484</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1201189003425831</v>
+        <v>0.1119400452384234</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2726315718940927</v>
+        <v>0.2641505065613851</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>23</v>
@@ -11930,19 +11930,19 @@
         <v>19404</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>12711</v>
+        <v>13320</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>27130</v>
+        <v>27113</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1924282995174897</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1260467238189528</v>
+        <v>0.1320929706742877</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2690375908116151</v>
+        <v>0.2688758733190243</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>43</v>
@@ -11951,19 +11951,19 @@
         <v>44613</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>33498</v>
+        <v>33233</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>58737</v>
+        <v>58918</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1876598957375182</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1409067566855678</v>
+        <v>0.1397891827380038</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2470702440450117</v>
+        <v>0.2478296699023682</v>
       </c>
     </row>
     <row r="47">
@@ -11980,19 +11980,19 @@
         <v>17631</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10285</v>
+        <v>9869</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>26394</v>
+        <v>26408</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1287928352244956</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.07512793047930648</v>
+        <v>0.07209492004054514</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1928060962062701</v>
+        <v>0.1929037049475927</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>26</v>
@@ -12001,19 +12001,19 @@
         <v>22919</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>15894</v>
+        <v>15987</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>31026</v>
+        <v>31774</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2272787076518656</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1576168878087215</v>
+        <v>0.158536888530837</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3076734152779973</v>
+        <v>0.3150885880148975</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>42</v>
@@ -12022,19 +12022,19 @@
         <v>40550</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>30184</v>
+        <v>29377</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>52177</v>
+        <v>53608</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1705676455291596</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1269635970497878</v>
+        <v>0.1235707401679123</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2194736597463773</v>
+        <v>0.2254932590867317</v>
       </c>
     </row>
     <row r="48">
@@ -12051,19 +12051,19 @@
         <v>33080</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>22860</v>
+        <v>23532</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>45737</v>
+        <v>45775</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2416422089293422</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1669921581748513</v>
+        <v>0.1718988009857571</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3341035561350174</v>
+        <v>0.3343810577279063</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>33</v>
@@ -12072,19 +12072,19 @@
         <v>27193</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>20245</v>
+        <v>20021</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>36167</v>
+        <v>36001</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2696602503268522</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2007680435054612</v>
+        <v>0.1985452951992314</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3586609954621048</v>
+        <v>0.3570109077648664</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>60</v>
@@ -12093,19 +12093,19 @@
         <v>60272</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>47373</v>
+        <v>46043</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>75852</v>
+        <v>74666</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2535266379915143</v>
+        <v>0.2535266379915142</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1992685645714517</v>
+        <v>0.1936752316239063</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3190607579849957</v>
+        <v>0.3140736538426531</v>
       </c>
     </row>
     <row r="49">
@@ -12122,19 +12122,19 @@
         <v>50813</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>38769</v>
+        <v>39283</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>63499</v>
+        <v>64125</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3711851096317346</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.283203990080767</v>
+        <v>0.2869594109329934</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4638515078197729</v>
+        <v>0.4684230548889912</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>32</v>
@@ -12143,19 +12143,19 @@
         <v>26154</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>18642</v>
+        <v>19201</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>35073</v>
+        <v>35755</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2593614301847396</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.184867168275018</v>
+        <v>0.1904077394089373</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3478094295602914</v>
+        <v>0.3545733296136857</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>73</v>
@@ -12164,19 +12164,19 @@
         <v>76967</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>61878</v>
+        <v>62641</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>92790</v>
+        <v>92132</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.323752793896168</v>
+        <v>0.3237527938961678</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2602806114387123</v>
+        <v>0.263492880368068</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3903093189135364</v>
+        <v>0.3875405420343457</v>
       </c>
     </row>
     <row r="50">
@@ -12193,19 +12193,19 @@
         <v>10162</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>4350</v>
+        <v>4638</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>20348</v>
+        <v>20934</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.07423247794347908</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03177717141886757</v>
+        <v>0.03388170350665025</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1486370223911962</v>
+        <v>0.1529214781898165</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>6</v>
@@ -12214,19 +12214,19 @@
         <v>5170</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2123</v>
+        <v>1688</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>9910</v>
+        <v>10440</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.05127131231905296</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02105759128613668</v>
+        <v>0.01673666985234526</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09827471387880121</v>
+        <v>0.1035334938632708</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>13</v>
@@ -12235,19 +12235,19 @@
         <v>15332</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>8449</v>
+        <v>8915</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>26996</v>
+        <v>26588</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.06449302684564018</v>
+        <v>0.06449302684564016</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.03553951779684202</v>
+        <v>0.03750025232900907</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.1135562410276083</v>
+        <v>0.111838461961159</v>
       </c>
     </row>
     <row r="51">
@@ -12339,19 +12339,19 @@
         <v>129213</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>108949</v>
+        <v>106682</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>152370</v>
+        <v>149729</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>0.2717649858489545</v>
+        <v>0.2717649858489544</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.2291464027636234</v>
+        <v>0.2243771589791172</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.3204713020749004</v>
+        <v>0.3149157202229335</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>125</v>
@@ -12360,19 +12360,19 @@
         <v>101232</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>85719</v>
+        <v>84145</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>117001</v>
+        <v>117051</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.2613294966207186</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.2212832076566193</v>
+        <v>0.2172195744888621</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.3020371614144614</v>
+        <v>0.3021655088611219</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>230</v>
@@ -12381,19 +12381,19 @@
         <v>230445</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>200321</v>
+        <v>202756</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>255970</v>
+        <v>257818</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.2670799016577468</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.2321674638044352</v>
+        <v>0.2349895557947059</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.2966638771635778</v>
+        <v>0.2988056348831876</v>
       </c>
     </row>
     <row r="53">
@@ -12410,19 +12410,19 @@
         <v>68584</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>49425</v>
+        <v>52005</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>87530</v>
+        <v>89371</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>0.1442489658390851</v>
+        <v>0.144248965839085</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1039518052116307</v>
+        <v>0.1093786719941406</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1840956586752772</v>
+        <v>0.1879679599971096</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>75</v>
@@ -12431,19 +12431,19 @@
         <v>54828</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>42899</v>
+        <v>43772</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>68119</v>
+        <v>68498</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.141537742576093</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.1107427215525096</v>
+        <v>0.112996483472536</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1758487966874191</v>
+        <v>0.1768269294115909</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>131</v>
@@ -12452,19 +12452,19 @@
         <v>123412</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>105313</v>
+        <v>102840</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>151202</v>
+        <v>148029</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.1430317436302873</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.1220552304050615</v>
+        <v>0.1191893517912387</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1752391323138309</v>
+        <v>0.1715621784265786</v>
       </c>
     </row>
     <row r="54">
@@ -12481,19 +12481,19 @@
         <v>157465</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>135487</v>
+        <v>133708</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>182518</v>
+        <v>183561</v>
       </c>
       <c r="G54" s="6" t="n">
-        <v>0.3311864329396132</v>
+        <v>0.3311864329396131</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.2849614453656033</v>
+        <v>0.281220733061306</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.38387928552901</v>
+        <v>0.3860729527946787</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>166</v>
@@ -12502,19 +12502,19 @@
         <v>120515</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>105088</v>
+        <v>105203</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>137242</v>
+        <v>137151</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.3111084406812525</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.2712842570322188</v>
+        <v>0.2715811082355902</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.3542899263636761</v>
+        <v>0.3540530732244827</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>297</v>
@@ -12523,19 +12523,19 @@
         <v>277980</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>248812</v>
+        <v>250477</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>309479</v>
+        <v>309028</v>
       </c>
       <c r="U54" s="6" t="n">
-        <v>0.3221722811290479</v>
+        <v>0.3221722811290478</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2883670944507427</v>
+        <v>0.2902975185874045</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.3586790655641675</v>
+        <v>0.3581562886121887</v>
       </c>
     </row>
     <row r="55">
@@ -12552,19 +12552,19 @@
         <v>90895</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>71856</v>
+        <v>72393</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>109647</v>
+        <v>115231</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1911731961702899</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.1511310695678323</v>
+        <v>0.1522589243166104</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2306141059411831</v>
+        <v>0.242358438560718</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>95</v>
@@ -12573,19 +12573,19 @@
         <v>78270</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>64785</v>
+        <v>63764</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>94094</v>
+        <v>94432</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2020539853845034</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1672426237833588</v>
+        <v>0.1646069403165974</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2429024547895577</v>
+        <v>0.2437760661213638</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>172</v>
@@ -12594,19 +12594,19 @@
         <v>169165</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>146805</v>
+        <v>147864</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>192909</v>
+        <v>196114</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.1960582008327874</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.1701435671424456</v>
+        <v>0.1713712706500818</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2235765256924959</v>
+        <v>0.2272912250508166</v>
       </c>
     </row>
     <row r="56">
@@ -12623,19 +12623,19 @@
         <v>29301</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>16810</v>
+        <v>18016</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>44998</v>
+        <v>46068</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.06162641920205751</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03535588143119787</v>
+        <v>0.03789217479781797</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.09464187961264527</v>
+        <v>0.09689237622258101</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>37</v>
@@ -12644,19 +12644,19 @@
         <v>32528</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>23827</v>
+        <v>23179</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>44669</v>
+        <v>45755</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.08397033473743247</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.06150954250712024</v>
+        <v>0.05983520512270453</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1153129994427602</v>
+        <v>0.1181171693394846</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>57</v>
@@ -12665,19 +12665,19 @@
         <v>61829</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>46463</v>
+        <v>45427</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>80599</v>
+        <v>81449</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.07165787275013068</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.05385005963127174</v>
+        <v>0.05264875475260699</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.09341202302179355</v>
+        <v>0.09439766434054822</v>
       </c>
     </row>
     <row r="57">
